--- a/capiq_data/in_process_data/IQ29002.xlsx
+++ b/capiq_data/in_process_data/IQ29002.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10848CA8-1D93-414E-B457-D6BFDDC7B735}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C47987C-F986-4F1F-BD64-4215EBEED292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"166bd2f3-a0aa-4a43-9905-32baf48262a3"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"5c00c0dc-42ff-4a4d-a442-7b572fc047c4"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>629.41899999999998</v>
+        <v>-18.385000000000002</v>
       </c>
       <c r="D2">
-        <v>1998.6869999999999</v>
+        <v>52.475000000000001</v>
       </c>
       <c r="E2">
-        <v>1621.9659999999999</v>
+        <v>48.814</v>
       </c>
       <c r="F2">
-        <v>1502.35</v>
+        <v>44.976999999999997</v>
       </c>
       <c r="G2">
-        <v>5708.0820000000003</v>
+        <v>593.798</v>
       </c>
       <c r="H2">
-        <v>11592.63</v>
+        <v>678.09900000000005</v>
       </c>
       <c r="I2">
-        <v>803.02499999999998</v>
+        <v>11.605</v>
       </c>
       <c r="J2">
-        <v>2838.5729999999999</v>
+        <v>252.238</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2464.9499999999998</v>
+        <v>58.238</v>
       </c>
       <c r="O2">
-        <v>5470.7929999999997</v>
+        <v>326.97500000000002</v>
       </c>
       <c r="P2">
-        <v>3477.5639999999999</v>
+        <v>255.27199999999999</v>
       </c>
       <c r="Q2">
-        <v>-115.114</v>
+        <v>153.91800000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4000</v>
+        <v>850</v>
       </c>
       <c r="T2">
-        <v>6121.8370000000004</v>
+        <v>351.12400000000002</v>
       </c>
       <c r="U2">
-        <v>907.87900000000002</v>
+        <v>197.292</v>
       </c>
       <c r="V2">
-        <v>724.84299999999996</v>
+        <v>-23.408000000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-459.65600000000001</v>
+        <v>244.94</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-384.45499999999998</v>
+        <v>-64.825999999999993</v>
       </c>
       <c r="AA2">
-        <v>629.41899999999998</v>
+        <v>-18.385000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>651.14099999999996</v>
+        <v>-21.722999999999999</v>
       </c>
       <c r="D3">
-        <v>1926.0940000000001</v>
+        <v>57.835999999999999</v>
       </c>
       <c r="E3">
-        <v>1801.212</v>
+        <v>51.186999999999998</v>
       </c>
       <c r="F3">
-        <v>1451.9829999999999</v>
+        <v>47.255000000000003</v>
       </c>
       <c r="G3">
-        <v>6851.1319999999996</v>
+        <v>570.37800000000004</v>
       </c>
       <c r="H3">
-        <v>12987.353999999999</v>
+        <v>657.54499999999996</v>
       </c>
       <c r="I3">
-        <v>981.63099999999997</v>
+        <v>9.9079999999999995</v>
       </c>
       <c r="J3">
-        <v>3850.13</v>
+        <v>251.941</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-0.47699999999999998</v>
       </c>
       <c r="N3">
-        <v>2768.7649999999999</v>
+        <v>55.201999999999998</v>
       </c>
       <c r="O3">
-        <v>6811.9930000000004</v>
+        <v>323.20499999999998</v>
       </c>
       <c r="P3">
-        <v>4497.3680000000004</v>
+        <v>254.79499999999999</v>
       </c>
       <c r="Q3">
-        <v>928.09900000000005</v>
+        <v>-119.889</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>6175.3609999999999</v>
+        <v>334.34</v>
       </c>
       <c r="U3">
-        <v>1835.9780000000001</v>
+        <v>77.403000000000006</v>
       </c>
       <c r="V3">
-        <v>820.54200000000003</v>
+        <v>-30.248000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>485.11</v>
+        <v>1.423</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-64.406000000000006</v>
+        <v>-87.748000000000005</v>
       </c>
       <c r="AA3">
-        <v>651.14099999999996</v>
+        <v>-21.722999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>746.22699999999998</v>
+        <v>-32.387</v>
       </c>
       <c r="D4">
-        <v>2137.2530000000002</v>
+        <v>50.686999999999998</v>
       </c>
       <c r="E4">
-        <v>1938.645</v>
+        <v>54.353999999999999</v>
       </c>
       <c r="F4">
-        <v>1603.39</v>
+        <v>39.89</v>
       </c>
       <c r="G4">
-        <v>6219.0450000000001</v>
+        <v>546.19100000000003</v>
       </c>
       <c r="H4">
-        <v>12694.14</v>
+        <v>636.66200000000003</v>
       </c>
       <c r="I4">
-        <v>1102.319</v>
+        <v>12.146000000000001</v>
       </c>
       <c r="J4">
-        <v>3870.846</v>
+        <v>251.411</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2310.8409999999999</v>
+        <v>56.69</v>
       </c>
       <c r="O4">
-        <v>6482.8090000000002</v>
+        <v>322.24700000000001</v>
       </c>
       <c r="P4">
-        <v>3870.846</v>
+        <v>254.02</v>
       </c>
       <c r="Q4">
-        <v>-930.19899999999996</v>
+        <v>-30.481999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>6211.3310000000001</v>
+        <v>314.41500000000002</v>
       </c>
       <c r="U4">
-        <v>905.779</v>
+        <v>46.920999999999999</v>
       </c>
       <c r="V4">
-        <v>943.255</v>
+        <v>-31.414999999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-1371.962</v>
+        <v>11.689</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-75.652000000000001</v>
+        <v>-2.5209999999999999</v>
       </c>
       <c r="AA4">
-        <v>746.22699999999998</v>
+        <v>-32.387</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>741.12400000000002</v>
+        <v>-25.196000000000002</v>
       </c>
       <c r="D5">
-        <v>2121.66</v>
+        <v>50.914999999999999</v>
       </c>
       <c r="E5">
-        <v>1867.0920000000001</v>
+        <v>59.402000000000001</v>
       </c>
       <c r="F5">
-        <v>1589.671</v>
+        <v>41.707000000000001</v>
       </c>
       <c r="G5">
-        <v>6147.2669999999998</v>
+        <v>544.60699999999997</v>
       </c>
       <c r="H5">
-        <v>12639.897999999999</v>
+        <v>632.93499999999995</v>
       </c>
       <c r="I5">
-        <v>1063.723</v>
+        <v>15.260999999999999</v>
       </c>
       <c r="J5">
-        <v>3891.7579999999998</v>
+        <v>250.75200000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2224.431</v>
+        <v>71.744</v>
       </c>
       <c r="O5">
-        <v>6406.692</v>
+        <v>334.79599999999999</v>
       </c>
       <c r="P5">
-        <v>3891.7579999999998</v>
+        <v>253.21899999999999</v>
       </c>
       <c r="Q5">
-        <v>3.58</v>
+        <v>-9.5749999999999993</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>6233.2060000000001</v>
+        <v>298.13900000000001</v>
       </c>
       <c r="U5">
-        <v>909.35900000000004</v>
+        <v>37.345999999999997</v>
       </c>
       <c r="V5">
-        <v>897.10599999999999</v>
+        <v>-31.099</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-876.19899999999996</v>
+        <v>3.72</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-16.030999999999999</v>
+        <v>23.33</v>
       </c>
       <c r="AA5">
-        <v>741.12400000000002</v>
+        <v>-25.196000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>665.14499999999998</v>
+        <v>131.577</v>
       </c>
       <c r="D6">
-        <v>2200.3780000000002</v>
+        <v>74.331000000000003</v>
       </c>
       <c r="E6">
-        <v>1951.1669999999999</v>
+        <v>74.227999999999994</v>
       </c>
       <c r="F6">
-        <v>1615.931</v>
+        <v>61.152999999999999</v>
       </c>
       <c r="G6">
-        <v>13918.785</v>
+        <v>707.75900000000001</v>
       </c>
       <c r="H6">
-        <v>17303.133999999998</v>
+        <v>794.78599999999994</v>
       </c>
       <c r="I6">
-        <v>1206.0519999999999</v>
+        <v>19.173999999999999</v>
       </c>
       <c r="J6">
-        <v>7605.7340000000004</v>
+        <v>250.38900000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2514.79</v>
+        <v>80.117000000000004</v>
       </c>
       <c r="O6">
-        <v>10435.785</v>
+        <v>342.34899999999999</v>
       </c>
       <c r="P6">
-        <v>7605.7340000000004</v>
+        <v>251.881</v>
       </c>
       <c r="Q6">
-        <v>8974.4179999999997</v>
+        <v>86.144000000000005</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="T6">
-        <v>6867.3490000000002</v>
+        <v>452.43700000000001</v>
       </c>
       <c r="U6">
-        <v>9883.777</v>
+        <v>123.49</v>
       </c>
       <c r="V6">
-        <v>978.10699999999997</v>
+        <v>-34.216999999999999</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>3526.62</v>
+        <v>16.718</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>4466.4459999999999</v>
+        <v>-15.952</v>
       </c>
       <c r="AA6">
-        <v>665.14499999999998</v>
+        <v>131.577</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>441.95600000000002</v>
+        <v>-3.85</v>
       </c>
       <c r="D7">
-        <v>2282.4490000000001</v>
+        <v>78.415999999999997</v>
       </c>
       <c r="E7">
-        <v>2163.6590000000001</v>
+        <v>76.935000000000002</v>
       </c>
       <c r="F7">
-        <v>1701.518</v>
+        <v>66.373999999999995</v>
       </c>
       <c r="G7">
-        <v>5826.5320000000002</v>
+        <v>700.64400000000001</v>
       </c>
       <c r="H7">
-        <v>19950.385999999999</v>
+        <v>787.73699999999997</v>
       </c>
       <c r="I7">
-        <v>1339.2570000000001</v>
+        <v>9.5259999999999998</v>
       </c>
       <c r="J7">
-        <v>8077.2460000000001</v>
+        <v>250.33</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-350</v>
+        <v>-0.45300000000000001</v>
       </c>
       <c r="N7">
-        <v>4187.9040000000005</v>
+        <v>69.081999999999994</v>
       </c>
       <c r="O7">
-        <v>12586.302</v>
+        <v>330.79300000000001</v>
       </c>
       <c r="P7">
-        <v>9427.2459999999992</v>
+        <v>251.428</v>
       </c>
       <c r="Q7">
-        <v>-8431.8349999999991</v>
+        <v>-47.253</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7364.0839999999998</v>
+        <v>456.94400000000002</v>
       </c>
       <c r="U7">
-        <v>1451.942</v>
+        <v>115.086</v>
       </c>
       <c r="V7">
-        <v>452.96899999999999</v>
+        <v>-23.114999999999998</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>1855.59</v>
+        <v>17.788</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>31.719000000000001</v>
+        <v>-39.816000000000003</v>
       </c>
       <c r="AA7">
-        <v>441.95600000000002</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>711.56399999999996</v>
+        <v>19.710999999999999</v>
       </c>
       <c r="D8">
-        <v>2405.1860000000001</v>
+        <v>109.363</v>
       </c>
       <c r="E8">
-        <v>1702.818</v>
+        <v>101.462</v>
       </c>
       <c r="F8">
-        <v>1787.8409999999999</v>
+        <v>91.644999999999996</v>
       </c>
       <c r="G8">
-        <v>5844.1019999999999</v>
+        <v>726.32299999999998</v>
       </c>
       <c r="H8">
-        <v>20501.95</v>
+        <v>815.97199999999998</v>
       </c>
       <c r="I8">
-        <v>1367.3530000000001</v>
+        <v>12.488</v>
       </c>
       <c r="J8">
-        <v>7126.3770000000004</v>
+        <v>250.297</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4986.674</v>
+        <v>82.691999999999993</v>
       </c>
       <c r="O8">
-        <v>12418.563</v>
+        <v>339.93599999999998</v>
       </c>
       <c r="P8">
-        <v>9099.14</v>
+        <v>250.98400000000001</v>
       </c>
       <c r="Q8">
-        <v>173.55799999999999</v>
+        <v>6.92</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>8083.3869999999997</v>
+        <v>476.036</v>
       </c>
       <c r="U8">
-        <v>1625.5</v>
+        <v>122.006</v>
       </c>
       <c r="V8">
-        <v>1290.6510000000001</v>
+        <v>1.21</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-474.87900000000002</v>
+        <v>11.557</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-597.572</v>
+        <v>1.331</v>
       </c>
       <c r="AA8">
-        <v>711.56399999999996</v>
+        <v>19.710999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>675.505</v>
+        <v>20.757000000000001</v>
       </c>
       <c r="D9">
-        <v>2426.5970000000002</v>
+        <v>133.98400000000001</v>
       </c>
       <c r="E9">
-        <v>1766.0909999999999</v>
+        <v>114.062</v>
       </c>
       <c r="F9">
-        <v>1829.328</v>
+        <v>113.572</v>
       </c>
       <c r="G9">
-        <v>5880.3789999999999</v>
+        <v>788.13499999999999</v>
       </c>
       <c r="H9">
-        <v>20963.829000000002</v>
+        <v>876.22699999999998</v>
       </c>
       <c r="I9">
-        <v>1319.67</v>
+        <v>17.254000000000001</v>
       </c>
       <c r="J9">
-        <v>7040.3819999999996</v>
+        <v>250.29300000000001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4802.1480000000001</v>
+        <v>85.475999999999999</v>
       </c>
       <c r="O9">
-        <v>12213.666999999999</v>
+        <v>353.39800000000002</v>
       </c>
       <c r="P9">
-        <v>8771.2199999999993</v>
+        <v>250.55600000000001</v>
       </c>
       <c r="Q9">
-        <v>-74.790000000000006</v>
+        <v>38.451000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>8750.1620000000003</v>
+        <v>522.82899999999995</v>
       </c>
       <c r="U9">
-        <v>1550.71</v>
+        <v>121.608</v>
       </c>
       <c r="V9">
-        <v>745.36800000000005</v>
+        <v>60.765999999999998</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-307.51400000000001</v>
+        <v>7.694</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-451.46</v>
+        <v>-23.356999999999999</v>
       </c>
       <c r="AA9">
-        <v>675.505</v>
+        <v>20.757000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>762.54100000000005</v>
+        <v>35.478999999999999</v>
       </c>
       <c r="D10">
-        <v>2503.2849999999999</v>
+        <v>145.02699999999999</v>
       </c>
       <c r="E10">
-        <v>1751.3879999999999</v>
+        <v>125.036</v>
       </c>
       <c r="F10">
-        <v>1912.4670000000001</v>
+        <v>125.47499999999999</v>
       </c>
       <c r="G10">
-        <v>6156.3469999999998</v>
+        <v>1183.76</v>
       </c>
       <c r="H10">
-        <v>21239.838</v>
+        <v>1288.183</v>
       </c>
       <c r="I10">
-        <v>1327.3389999999999</v>
+        <v>24.405999999999999</v>
       </c>
       <c r="J10">
-        <v>7054.5550000000003</v>
+        <v>595.27300000000002</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4237.8969999999999</v>
+        <v>104.892</v>
       </c>
       <c r="O10">
-        <v>11688.968999999999</v>
+        <v>716.84199999999998</v>
       </c>
       <c r="P10">
-        <v>8223.9879999999994</v>
+        <v>595.46699999999998</v>
       </c>
       <c r="Q10">
-        <v>252.98400000000001</v>
+        <v>495.32299999999998</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="T10">
-        <v>9550.8690000000006</v>
+        <v>571.34100000000001</v>
       </c>
       <c r="U10">
-        <v>1803.694</v>
+        <v>616.93100000000004</v>
       </c>
       <c r="V10">
-        <v>705.72799999999995</v>
+        <v>35.548000000000002</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-509.851</v>
+        <v>349.57</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>319.94</v>
+        <v>175.261</v>
       </c>
       <c r="AA10">
-        <v>762.54100000000005</v>
+        <v>35.478999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>722.18600000000004</v>
+        <v>-438.05399999999997</v>
       </c>
       <c r="D11">
-        <v>2531.6350000000002</v>
+        <v>165.10499999999999</v>
       </c>
       <c r="E11">
-        <v>1945.1890000000001</v>
+        <v>145.97999999999999</v>
       </c>
       <c r="F11">
-        <v>1897.1869999999999</v>
+        <v>143.733</v>
       </c>
       <c r="G11">
-        <v>6663.0969999999998</v>
+        <v>832.45299999999997</v>
       </c>
       <c r="H11">
-        <v>22211.668000000001</v>
+        <v>942.77</v>
       </c>
       <c r="I11">
-        <v>1356.3720000000001</v>
+        <v>24.096</v>
       </c>
       <c r="J11">
-        <v>7054.7960000000003</v>
+        <v>595</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-347.916</v>
+        <v>-1.76</v>
       </c>
       <c r="N11">
-        <v>4290.2150000000001</v>
+        <v>130.012</v>
       </c>
       <c r="O11">
-        <v>11819.195</v>
+        <v>741.58799999999997</v>
       </c>
       <c r="P11">
-        <v>7997.5550000000003</v>
+        <v>595.41700000000003</v>
       </c>
       <c r="Q11">
-        <v>60.277999999999999</v>
+        <v>-499.45400000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>10392.473</v>
+        <v>201.18199999999999</v>
       </c>
       <c r="U11">
-        <v>1863.972</v>
+        <v>117.477</v>
       </c>
       <c r="V11">
-        <v>672.101</v>
+        <v>20.942</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-199.001</v>
+        <v>24.599</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="Z11">
-        <v>10.243</v>
+        <v>-170.17599999999999</v>
       </c>
       <c r="AA11">
-        <v>722.18600000000004</v>
+        <v>-438.05399999999997</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>772.60500000000002</v>
+        <v>100.372</v>
       </c>
       <c r="D12">
-        <v>2767.3939999999998</v>
+        <v>238.87</v>
       </c>
       <c r="E12">
-        <v>1895.913</v>
+        <v>200.30600000000001</v>
       </c>
       <c r="F12">
-        <v>2082.7310000000002</v>
+        <v>206.76400000000001</v>
       </c>
       <c r="G12">
-        <v>7072.5290000000005</v>
+        <v>963.77099999999996</v>
       </c>
       <c r="H12">
-        <v>22624.374</v>
+        <v>1074.8620000000001</v>
       </c>
       <c r="I12">
-        <v>1390.6410000000001</v>
+        <v>23.638000000000002</v>
       </c>
       <c r="J12">
-        <v>5849.5519999999997</v>
+        <v>595</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4937.1379999999999</v>
+        <v>136.589</v>
       </c>
       <c r="O12">
-        <v>11280.99</v>
+        <v>747.85599999999999</v>
       </c>
       <c r="P12">
-        <v>7337.7219999999998</v>
+        <v>595.41700000000003</v>
       </c>
       <c r="Q12">
-        <v>338.20400000000001</v>
+        <v>51.878</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>11343.384</v>
+        <v>327.00599999999997</v>
       </c>
       <c r="U12">
-        <v>2202.1759999999999</v>
+        <v>169.35499999999999</v>
       </c>
       <c r="V12">
-        <v>953.00400000000002</v>
+        <v>59.442</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-557.64800000000002</v>
+        <v>23.462</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="Z12">
-        <v>-10.201000000000001</v>
+        <v>-18.053999999999998</v>
       </c>
       <c r="AA12">
-        <v>772.60500000000002</v>
+        <v>100.372</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>788.60599999999999</v>
+        <v>73.096000000000004</v>
       </c>
       <c r="D13">
-        <v>2782.8330000000001</v>
+        <v>200.37200000000001</v>
       </c>
       <c r="E13">
-        <v>1971.9259999999999</v>
+        <v>201.05600000000001</v>
       </c>
       <c r="F13">
-        <v>2100.9650000000001</v>
+        <v>174.43600000000001</v>
       </c>
       <c r="G13">
-        <v>6968.0609999999997</v>
+        <v>926.99699999999996</v>
       </c>
       <c r="H13">
-        <v>22468.428</v>
+        <v>1168.1410000000001</v>
       </c>
       <c r="I13">
-        <v>1350.402</v>
+        <v>24.684999999999999</v>
       </c>
       <c r="J13">
-        <v>5856.0929999999998</v>
+        <v>595</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4895.1239999999998</v>
+        <v>133.40199999999999</v>
       </c>
       <c r="O13">
-        <v>11275.955</v>
+        <v>749.80899999999997</v>
       </c>
       <c r="P13">
-        <v>7313.415</v>
+        <v>595.46699999999998</v>
       </c>
       <c r="Q13">
-        <v>-191.44</v>
+        <v>-66.037999999999997</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>11192.473</v>
+        <v>418.33199999999999</v>
       </c>
       <c r="U13">
-        <v>2010.7360000000001</v>
+        <v>103.31699999999999</v>
       </c>
       <c r="V13">
-        <v>753.096</v>
+        <v>54.31</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-942.23299999999995</v>
+        <v>20.216999999999999</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="Z13">
-        <v>29.148</v>
+        <v>-7.5229999999999997</v>
       </c>
       <c r="AA13">
-        <v>788.60599999999999</v>
+        <v>73.096000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>791.60299999999995</v>
+        <v>192.583</v>
       </c>
       <c r="D14">
-        <v>3120.1379999999999</v>
+        <v>263.517</v>
       </c>
       <c r="E14">
-        <v>2182</v>
+        <v>235.21700000000001</v>
       </c>
       <c r="F14">
-        <v>2262.1170000000002</v>
+        <v>230.24</v>
       </c>
       <c r="G14">
-        <v>6997</v>
+        <v>1265.8979999999999</v>
       </c>
       <c r="H14">
-        <v>22579</v>
+        <v>1554.722</v>
       </c>
       <c r="I14">
-        <v>1256</v>
+        <v>35.649000000000001</v>
       </c>
       <c r="J14">
-        <v>3939</v>
+        <v>345</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6407</v>
+        <v>185.89500000000001</v>
       </c>
       <c r="O14">
-        <v>10770</v>
+        <v>551.74800000000005</v>
       </c>
       <c r="P14">
-        <v>6636</v>
+        <v>345.46199999999999</v>
       </c>
       <c r="Q14">
-        <v>101.958</v>
+        <v>91.402000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>6100</v>
+        <v>1425</v>
       </c>
       <c r="T14">
-        <v>11809</v>
+        <v>1002.974</v>
       </c>
       <c r="U14">
-        <v>2113</v>
+        <v>194.71899999999999</v>
       </c>
       <c r="V14">
-        <v>726.79899999999998</v>
+        <v>99.912999999999997</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-845.11800000000005</v>
+        <v>13.813000000000001</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="Z14">
-        <v>285.81</v>
+        <v>5.524</v>
       </c>
       <c r="AA14">
-        <v>791.60299999999995</v>
+        <v>192.583</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>2227</v>
+        <v>114.428</v>
       </c>
       <c r="D15">
-        <v>4999</v>
+        <v>309.12700000000001</v>
       </c>
       <c r="E15">
-        <v>3236.1950000000002</v>
+        <v>257.49099999999999</v>
       </c>
       <c r="F15">
-        <v>4186</v>
+        <v>274.178</v>
       </c>
       <c r="G15">
-        <v>12970.629000000001</v>
+        <v>1395.0139999999999</v>
       </c>
       <c r="H15">
-        <v>28077.691999999999</v>
+        <v>1675.5219999999999</v>
       </c>
       <c r="I15">
-        <v>1234.5070000000001</v>
+        <v>28.105</v>
       </c>
       <c r="J15">
-        <v>7932.0320000000002</v>
+        <v>345.33100000000002</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1419</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>5914.7759999999998</v>
+        <v>175.78899999999999</v>
       </c>
       <c r="O15">
-        <v>14329.731</v>
+        <v>543.42499999999995</v>
       </c>
       <c r="P15">
-        <v>9803.77</v>
+        <v>345.33100000000002</v>
       </c>
       <c r="Q15">
-        <v>4291</v>
+        <v>-39.134</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>13747.960999999999</v>
+        <v>1132.097</v>
       </c>
       <c r="U15">
-        <v>6404.1530000000002</v>
+        <v>155.58500000000001</v>
       </c>
       <c r="V15">
-        <v>1568</v>
+        <v>98.206000000000003</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>2884</v>
+        <v>10.917</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>3</v>
+        <v>-147.15299999999999</v>
       </c>
       <c r="AA15">
-        <v>2227</v>
+        <v>114.428</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>3655.5929999999998</v>
+        <v>111.459</v>
       </c>
       <c r="D16">
-        <v>6535</v>
+        <v>319.72199999999998</v>
       </c>
       <c r="E16">
-        <v>3436.7109999999998</v>
+        <v>277.30500000000001</v>
       </c>
       <c r="F16">
-        <v>5610</v>
+        <v>277.63</v>
       </c>
       <c r="G16">
-        <v>15499.339</v>
+        <v>1531.7760000000001</v>
       </c>
       <c r="H16">
-        <v>31206.164000000001</v>
+        <v>1808.4670000000001</v>
       </c>
       <c r="I16">
-        <v>1162.307</v>
+        <v>29.986000000000001</v>
       </c>
       <c r="J16">
-        <v>7932.5360000000001</v>
+        <v>345.30399999999997</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>6227.9970000000003</v>
+        <v>174.82900000000001</v>
       </c>
       <c r="O16">
-        <v>14740.947</v>
+        <v>541.30399999999997</v>
       </c>
       <c r="P16">
-        <v>9504.5429999999997</v>
+        <v>345.30399999999997</v>
       </c>
       <c r="Q16">
-        <v>2326.3690000000001</v>
+        <v>70.977999999999994</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>16465.217000000001</v>
+        <v>1267.163</v>
       </c>
       <c r="U16">
-        <v>8730.5220000000008</v>
+        <v>226.56299999999999</v>
       </c>
       <c r="V16">
-        <v>4185.2929999999997</v>
+        <v>122.488</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-1371.5909999999999</v>
+        <v>28.774999999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-396.25099999999998</v>
+        <v>-67.555000000000007</v>
       </c>
       <c r="AA16">
-        <v>3656</v>
+        <v>111.459</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>2731</v>
+        <v>113.24</v>
       </c>
       <c r="D17">
-        <v>6042</v>
+        <v>326.18700000000001</v>
       </c>
       <c r="E17">
-        <v>2850.3670000000002</v>
+        <v>304.298</v>
       </c>
       <c r="F17">
-        <v>5055</v>
+        <v>285.34500000000003</v>
       </c>
       <c r="G17">
-        <v>12562.031000000001</v>
+        <v>1707.367</v>
       </c>
       <c r="H17">
-        <v>28844.393</v>
+        <v>1985.6759999999999</v>
       </c>
       <c r="I17">
-        <v>1182.9169999999999</v>
+        <v>33.551000000000002</v>
       </c>
       <c r="J17">
-        <v>7933.04</v>
+        <v>345.29300000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>6054.9520000000002</v>
+        <v>217.52600000000001</v>
       </c>
       <c r="O17">
-        <v>14953.401</v>
+        <v>590.404</v>
       </c>
       <c r="P17">
-        <v>9410.0589999999993</v>
+        <v>345.29300000000001</v>
       </c>
       <c r="Q17">
-        <v>-2522</v>
+        <v>74.887</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>13890.992</v>
+        <v>1395.2719999999999</v>
       </c>
       <c r="U17">
-        <v>6209.06</v>
+        <v>301.45</v>
       </c>
       <c r="V17">
-        <v>4044</v>
+        <v>166.636</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-5772</v>
+        <v>16.623999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-635</v>
+        <v>-99.391999999999996</v>
       </c>
       <c r="AA17">
-        <v>2731</v>
+        <v>113.24</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>3487</v>
+        <v>110.244</v>
       </c>
       <c r="D18">
-        <v>7314</v>
+        <v>369.58499999999998</v>
       </c>
       <c r="E18">
-        <v>4635</v>
+        <v>371.245</v>
       </c>
       <c r="F18">
-        <v>6251</v>
+        <v>320.88099999999997</v>
       </c>
       <c r="G18">
-        <v>17714</v>
+        <v>1849.694</v>
       </c>
       <c r="H18">
-        <v>34664</v>
+        <v>2155.9630000000002</v>
       </c>
       <c r="I18">
-        <v>955</v>
+        <v>47.552</v>
       </c>
       <c r="J18">
-        <v>11921</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5761</v>
+        <v>253.453</v>
       </c>
       <c r="O18">
-        <v>18830</v>
+        <v>285.09100000000001</v>
       </c>
       <c r="P18">
-        <v>12404</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="Q18">
-        <v>3818</v>
+        <v>-20.541</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>7000</v>
+        <v>1654</v>
       </c>
       <c r="T18">
-        <v>15834</v>
+        <v>1870.8720000000001</v>
       </c>
       <c r="U18">
-        <v>10027</v>
+        <v>280.90899999999999</v>
       </c>
       <c r="V18">
-        <v>3021</v>
+        <v>124.048</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1234</v>
+        <v>22.343</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="Z18">
-        <v>-238</v>
+        <v>-125.36199999999999</v>
       </c>
       <c r="AA18">
-        <v>3487</v>
+        <v>110.244</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>4333</v>
+        <v>157.113</v>
       </c>
       <c r="D19">
-        <v>7594</v>
+        <v>430.41399999999999</v>
       </c>
       <c r="E19">
-        <v>4835</v>
+        <v>385.44400000000002</v>
       </c>
       <c r="F19">
-        <v>6712</v>
+        <v>372.99900000000002</v>
       </c>
       <c r="G19">
-        <v>21257</v>
+        <v>2070.2440000000001</v>
       </c>
       <c r="H19">
-        <v>38321</v>
+        <v>2369.4830000000002</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>35.862000000000002</v>
       </c>
       <c r="J19">
-        <v>11921</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-199</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>7428</v>
+        <v>270.21899999999999</v>
       </c>
       <c r="O19">
-        <v>20722</v>
+        <v>306.01600000000002</v>
       </c>
       <c r="P19">
-        <v>12363</v>
+        <v>0.42</v>
       </c>
       <c r="Q19">
-        <v>608</v>
+        <v>1.032</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>17599</v>
+        <v>2063.4670000000001</v>
       </c>
       <c r="U19">
-        <v>14514</v>
+        <v>281.94099999999997</v>
       </c>
       <c r="V19">
-        <v>5701</v>
+        <v>222.82599999999999</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-2722</v>
+        <v>17.151</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="Z19">
-        <v>-2175</v>
+        <v>-214.232</v>
       </c>
       <c r="AA19">
-        <v>4333</v>
+        <v>157.113</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>4492</v>
+        <v>195.96700000000001</v>
       </c>
       <c r="D20">
-        <v>8244</v>
+        <v>495.26900000000001</v>
       </c>
       <c r="E20">
-        <v>5331</v>
+        <v>371.98399999999998</v>
       </c>
       <c r="F20">
-        <v>7246</v>
+        <v>432</v>
       </c>
       <c r="G20">
-        <v>18093</v>
+        <v>2384.8200000000002</v>
       </c>
       <c r="H20">
-        <v>39167</v>
+        <v>2688.114</v>
       </c>
       <c r="I20">
-        <v>1571</v>
+        <v>57.704000000000001</v>
       </c>
       <c r="J20">
-        <v>11922</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>8925</v>
+        <v>261.19</v>
       </c>
       <c r="O20">
-        <v>22526</v>
+        <v>296.08300000000003</v>
       </c>
       <c r="P20">
-        <v>12274</v>
+        <v>0.434</v>
       </c>
       <c r="Q20">
-        <v>-3218</v>
+        <v>511.67700000000002</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>16641</v>
+        <v>2392.0309999999999</v>
       </c>
       <c r="U20">
-        <v>7417</v>
+        <v>793.61800000000005</v>
       </c>
       <c r="V20">
-        <v>5658</v>
+        <v>293.20600000000002</v>
       </c>
       <c r="W20">
-        <v>-633</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-5341</v>
+        <v>59.954000000000001</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="Z20">
-        <v>-3381</v>
+        <v>194.262</v>
       </c>
       <c r="AA20">
-        <v>4492</v>
+        <v>195.96700000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>4600</v>
+        <v>179.232</v>
       </c>
       <c r="D21">
-        <v>8295</v>
+        <v>493.45100000000002</v>
       </c>
       <c r="E21">
-        <v>6105</v>
+        <v>400.62299999999999</v>
       </c>
       <c r="F21">
-        <v>7231</v>
+        <v>427.95299999999997</v>
       </c>
       <c r="G21">
-        <v>25910</v>
+        <v>2297.7150000000001</v>
       </c>
       <c r="H21">
-        <v>50637</v>
+        <v>2918.6849999999999</v>
       </c>
       <c r="I21">
-        <v>1239</v>
+        <v>33.134</v>
       </c>
       <c r="J21">
-        <v>21894</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9360</v>
+        <v>267.86599999999999</v>
       </c>
       <c r="O21">
-        <v>32689</v>
+        <v>301.82</v>
       </c>
       <c r="P21">
-        <v>22225</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="Q21">
-        <v>6548</v>
+        <v>-275.02</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>17948</v>
+        <v>2616.8649999999998</v>
       </c>
       <c r="U21">
-        <v>13965</v>
+        <v>592.72199999999998</v>
       </c>
       <c r="V21">
-        <v>4096</v>
+        <v>-146.74</v>
       </c>
       <c r="W21">
-        <v>-627</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>6644</v>
+        <v>29.885999999999999</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="Z21">
-        <v>-3900</v>
+        <v>-144.58799999999999</v>
       </c>
       <c r="AA21">
-        <v>4600</v>
+        <v>179.232</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>4683</v>
+        <v>281.60199999999998</v>
       </c>
       <c r="D22">
-        <v>8506</v>
+        <v>609.26599999999996</v>
       </c>
       <c r="E22">
-        <v>5854</v>
+        <v>396.125</v>
       </c>
       <c r="F22">
-        <v>7444</v>
+        <v>535.12199999999996</v>
       </c>
       <c r="G22">
-        <v>24762</v>
+        <v>3092.2080000000001</v>
       </c>
       <c r="H22">
-        <v>51716</v>
+        <v>3766.3159999999998</v>
       </c>
       <c r="I22">
-        <v>1178</v>
+        <v>70.908000000000001</v>
       </c>
       <c r="J22">
-        <v>21073</v>
+        <v>240.65</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9890</v>
+        <v>465.16300000000001</v>
       </c>
       <c r="O22">
-        <v>32601</v>
+        <v>738.53800000000001</v>
       </c>
       <c r="P22">
-        <v>22055</v>
+        <v>300.85599999999999</v>
       </c>
       <c r="Q22">
-        <v>-1114</v>
+        <v>189.315</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>8000</v>
+        <v>1900</v>
       </c>
       <c r="T22">
-        <v>19115</v>
+        <v>3027.7779999999998</v>
       </c>
       <c r="U22">
-        <v>12851</v>
+        <v>707.91300000000001</v>
       </c>
       <c r="V22">
-        <v>4874</v>
+        <v>336.35</v>
       </c>
       <c r="W22">
-        <v>-614</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-3544</v>
+        <v>334.90499999999997</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-2272</v>
+        <v>-469.96899999999999</v>
       </c>
       <c r="AA22">
-        <v>4683</v>
+        <v>281.60199999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>3566</v>
+        <v>262.70400000000001</v>
       </c>
       <c r="D23">
-        <v>7794</v>
+        <v>692.87800000000004</v>
       </c>
       <c r="E23">
-        <v>6163</v>
+        <v>433.63299999999998</v>
       </c>
       <c r="F23">
-        <v>6601</v>
+        <v>602.52099999999996</v>
       </c>
       <c r="G23">
-        <v>19267</v>
+        <v>3375.4050000000002</v>
       </c>
       <c r="H23">
-        <v>47765</v>
+        <v>4036.5340000000001</v>
       </c>
       <c r="I23">
-        <v>945</v>
+        <v>60.209000000000003</v>
       </c>
       <c r="J23">
-        <v>21077</v>
+        <v>184</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-126</v>
+        <v>-56.131999999999998</v>
       </c>
       <c r="N23">
-        <v>10910</v>
+        <v>421.90300000000002</v>
       </c>
       <c r="O23">
-        <v>33746</v>
+        <v>638.072</v>
       </c>
       <c r="P23">
-        <v>22030</v>
+        <v>244.756</v>
       </c>
       <c r="Q23">
-        <v>-6536</v>
+        <v>-439.23599999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>14019</v>
+        <v>3398.462</v>
       </c>
       <c r="U23">
-        <v>6315</v>
+        <v>268.67700000000002</v>
       </c>
       <c r="V23">
-        <v>4130</v>
+        <v>221.89400000000001</v>
       </c>
       <c r="W23">
-        <v>-587</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-8613</v>
+        <v>24.777000000000001</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="Z23">
-        <v>-1575</v>
+        <v>-675.73599999999999</v>
       </c>
       <c r="AA23">
-        <v>3566</v>
+        <v>262.70400000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>3497</v>
+        <v>265.14999999999998</v>
       </c>
       <c r="D24">
-        <v>7776</v>
+        <v>685.30200000000002</v>
       </c>
       <c r="E24">
-        <v>5752</v>
+        <v>489.31900000000002</v>
       </c>
       <c r="F24">
-        <v>6912</v>
+        <v>607.41899999999998</v>
       </c>
       <c r="G24">
-        <v>18353</v>
+        <v>2491.8690000000001</v>
       </c>
       <c r="H24">
-        <v>49980</v>
+        <v>5179.6480000000001</v>
       </c>
       <c r="I24">
-        <v>1122</v>
+        <v>153.81700000000001</v>
       </c>
       <c r="J24">
-        <v>21427</v>
+        <v>1300</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10444</v>
+        <v>507.96800000000002</v>
       </c>
       <c r="O24">
-        <v>33865</v>
+        <v>1981.7339999999999</v>
       </c>
       <c r="P24">
-        <v>22127</v>
+        <v>1499.6659999999999</v>
       </c>
       <c r="Q24">
-        <v>170</v>
+        <v>615.77200000000005</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>16115</v>
+        <v>3197.9140000000002</v>
       </c>
       <c r="U24">
-        <v>6485</v>
+        <v>884.44899999999996</v>
       </c>
       <c r="V24">
-        <v>4985</v>
+        <v>265.899</v>
       </c>
       <c r="W24">
-        <v>-626</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-1561</v>
+        <v>589.99900000000002</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>139.417</v>
       </c>
       <c r="Z24">
-        <v>-3437</v>
+        <v>-205.40100000000001</v>
       </c>
       <c r="AA24">
-        <v>3497</v>
+        <v>265.14999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>3330</v>
+        <v>-52.164000000000001</v>
       </c>
       <c r="D25">
-        <v>7500</v>
+        <v>748.73299999999995</v>
       </c>
       <c r="E25">
-        <v>5075</v>
+        <v>585.04999999999995</v>
       </c>
       <c r="F25">
-        <v>6371</v>
+        <v>638.94200000000001</v>
       </c>
       <c r="G25">
-        <v>21425</v>
+        <v>4032.4</v>
       </c>
       <c r="H25">
-        <v>56609</v>
+        <v>5299.1319999999996</v>
       </c>
       <c r="I25">
-        <v>1052</v>
+        <v>207.80600000000001</v>
       </c>
       <c r="J25">
-        <v>26371</v>
+        <v>1380.421</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11073</v>
+        <v>581.82899999999995</v>
       </c>
       <c r="O25">
-        <v>39249</v>
+        <v>2000.3019999999999</v>
       </c>
       <c r="P25">
-        <v>27071</v>
+        <v>1440.5360000000001</v>
       </c>
       <c r="Q25">
-        <v>3324</v>
+        <v>-324.86900000000003</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>17360</v>
+        <v>3298.83</v>
       </c>
       <c r="U25">
-        <v>9809</v>
+        <v>559.58000000000004</v>
       </c>
       <c r="V25">
-        <v>4393</v>
+        <v>250.75800000000001</v>
       </c>
       <c r="W25">
-        <v>-623</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>2797</v>
+        <v>15.058</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-3719</v>
+        <v>-189.565</v>
       </c>
       <c r="AA25">
-        <v>3330</v>
+        <v>-52.164000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>3108</v>
+        <v>-1665.6469999999999</v>
       </c>
       <c r="D26">
-        <v>7320</v>
+        <v>899.226</v>
       </c>
       <c r="E26">
-        <v>4514</v>
+        <v>609.32000000000005</v>
       </c>
       <c r="F26">
-        <v>6245</v>
+        <v>743.93700000000001</v>
       </c>
       <c r="G26">
-        <v>19588</v>
+        <v>2429.2060000000001</v>
       </c>
       <c r="H26">
-        <v>56977</v>
+        <v>4085.9810000000002</v>
       </c>
       <c r="I26">
-        <v>1206</v>
+        <v>367.029</v>
       </c>
       <c r="J26">
-        <v>26346</v>
+        <v>1391.847</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>9218</v>
+        <v>764.27599999999995</v>
       </c>
       <c r="O26">
-        <v>37614</v>
+        <v>2217.172</v>
       </c>
       <c r="P26">
-        <v>26346</v>
+        <v>1410.5940000000001</v>
       </c>
       <c r="Q26">
-        <v>-1580</v>
+        <v>256.42700000000002</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>9000</v>
+        <v>2515</v>
       </c>
       <c r="T26">
-        <v>19363</v>
+        <v>1868.809</v>
       </c>
       <c r="U26">
-        <v>8229</v>
+        <v>816.00699999999995</v>
       </c>
       <c r="V26">
-        <v>3539</v>
+        <v>479.50799999999998</v>
       </c>
       <c r="W26">
-        <v>-619</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-2348</v>
+        <v>19.427</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-2506</v>
+        <v>2172.748</v>
       </c>
       <c r="AA26">
-        <v>3108</v>
+        <v>-1665.6469999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>2702</v>
+        <v>407.40699999999998</v>
       </c>
       <c r="D27">
-        <v>6505</v>
+        <v>1028.43</v>
       </c>
       <c r="E27">
-        <v>4034</v>
+        <v>692.06600000000003</v>
       </c>
       <c r="F27">
-        <v>5548</v>
+        <v>856.79200000000003</v>
       </c>
       <c r="G27">
-        <v>21424</v>
+        <v>2440.5590000000002</v>
       </c>
       <c r="H27">
-        <v>57701</v>
+        <v>4615.3789999999999</v>
       </c>
       <c r="I27">
-        <v>944</v>
+        <v>297.267</v>
       </c>
       <c r="J27">
-        <v>26321</v>
+        <v>1395.9659999999999</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-30</v>
+        <v>-99.137</v>
       </c>
       <c r="N27">
-        <v>8282</v>
+        <v>710.48599999999999</v>
       </c>
       <c r="O27">
-        <v>36784</v>
+        <v>2174.8110000000001</v>
       </c>
       <c r="P27">
-        <v>26321</v>
+        <v>1396.2729999999999</v>
       </c>
       <c r="Q27">
-        <v>2056</v>
+        <v>-86.864999999999995</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>20917</v>
+        <v>2440.5680000000002</v>
       </c>
       <c r="U27">
-        <v>10285</v>
+        <v>729.14200000000005</v>
       </c>
       <c r="V27">
-        <v>2925</v>
+        <v>490.49299999999999</v>
       </c>
       <c r="W27">
-        <v>-687</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-1244</v>
+        <v>18.219000000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>425</v>
+        <v>-565.39</v>
       </c>
       <c r="AA27">
-        <v>2702</v>
+        <v>407.40699999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>3073</v>
+        <v>407.93</v>
       </c>
       <c r="D28">
-        <v>7141</v>
+        <v>1048.0889999999999</v>
       </c>
       <c r="E28">
-        <v>4478</v>
+        <v>734.51199999999994</v>
       </c>
       <c r="F28">
-        <v>6015</v>
+        <v>864.95799999999997</v>
       </c>
       <c r="G28">
-        <v>28592</v>
+        <v>2447.174</v>
       </c>
       <c r="H28">
-        <v>60263</v>
+        <v>4825.78</v>
       </c>
       <c r="I28">
-        <v>819</v>
+        <v>265.26400000000001</v>
       </c>
       <c r="J28">
-        <v>26296</v>
+        <v>1407.335</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>8492</v>
+        <v>751.72500000000002</v>
       </c>
       <c r="O28">
-        <v>37172</v>
+        <v>2225.0369999999998</v>
       </c>
       <c r="P28">
-        <v>26296</v>
+        <v>1407.64</v>
       </c>
       <c r="Q28">
-        <v>-1573</v>
+        <v>-27.494</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>23091</v>
+        <v>2600.7429999999999</v>
       </c>
       <c r="U28">
-        <v>8712</v>
+        <v>701.64800000000002</v>
       </c>
       <c r="V28">
-        <v>3526</v>
+        <v>511.721</v>
       </c>
       <c r="W28">
-        <v>-680</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-880</v>
+        <v>-355.00700000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-4123</v>
+        <v>-159.53299999999999</v>
       </c>
       <c r="AA28">
-        <v>3073</v>
+        <v>407.93</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>2718</v>
+        <v>398.31900000000002</v>
       </c>
       <c r="D29">
-        <v>6512</v>
+        <v>1058.8030000000001</v>
       </c>
       <c r="E29">
-        <v>4122</v>
+        <v>803.62800000000004</v>
       </c>
       <c r="F29">
-        <v>5480</v>
+        <v>860.34299999999996</v>
       </c>
       <c r="G29">
-        <v>35317</v>
+        <v>2545.0430000000001</v>
       </c>
       <c r="H29">
-        <v>64662</v>
+        <v>5317.5749999999998</v>
       </c>
       <c r="I29">
-        <v>696</v>
+        <v>264.49599999999998</v>
       </c>
       <c r="J29">
-        <v>27515</v>
+        <v>1300</v>
       </c>
       <c r="K29">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>9597</v>
+        <v>691.43899999999996</v>
       </c>
       <c r="O29">
-        <v>39408</v>
+        <v>2174.13</v>
       </c>
       <c r="P29">
-        <v>29262</v>
+        <v>1300.2449999999999</v>
       </c>
       <c r="Q29">
-        <v>2796</v>
+        <v>-117.52</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>25254</v>
+        <v>3143.4450000000002</v>
       </c>
       <c r="U29">
-        <v>11508</v>
+        <v>584.12800000000004</v>
       </c>
       <c r="V29">
-        <v>2694</v>
+        <v>251.19800000000001</v>
       </c>
       <c r="W29">
-        <v>-682</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>2170</v>
+        <v>54.152000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-1985</v>
+        <v>-336.79899999999998</v>
       </c>
       <c r="AA29">
-        <v>2718</v>
+        <v>398.31900000000002</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-3865</v>
+        <v>401.642</v>
       </c>
       <c r="D30">
-        <v>5949</v>
+        <v>1094.723</v>
       </c>
       <c r="E30">
-        <v>3851</v>
+        <v>795.12699999999995</v>
       </c>
       <c r="F30">
-        <v>4693</v>
+        <v>879.18100000000004</v>
       </c>
       <c r="G30">
-        <v>31823</v>
+        <v>3028.2919999999999</v>
       </c>
       <c r="H30">
-        <v>70283</v>
+        <v>5834.7160000000003</v>
       </c>
       <c r="I30">
-        <v>814</v>
+        <v>290.33300000000003</v>
       </c>
       <c r="J30">
-        <v>30795</v>
+        <v>1311.604</v>
       </c>
       <c r="K30">
-        <v>1748</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>11635</v>
+        <v>736.27499999999998</v>
       </c>
       <c r="O30">
-        <v>49782</v>
+        <v>2234.4270000000001</v>
       </c>
       <c r="P30">
-        <v>33542</v>
+        <v>1311.89</v>
       </c>
       <c r="Q30">
-        <v>-3920</v>
+        <v>383.95800000000003</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>10000</v>
+        <v>2979</v>
       </c>
       <c r="T30">
-        <v>20501</v>
+        <v>3600.2890000000002</v>
       </c>
       <c r="U30">
-        <v>7588</v>
+        <v>968.08600000000001</v>
       </c>
       <c r="V30">
-        <v>2753</v>
+        <v>511.98599999999999</v>
       </c>
       <c r="W30">
-        <v>-682</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>3347</v>
+        <v>15.337</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>630</v>
+        <v>-115.654</v>
       </c>
       <c r="AA30">
-        <v>-3865</v>
+        <v>401.642</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1538</v>
+        <v>488.3</v>
       </c>
       <c r="D31">
-        <v>5088</v>
+        <v>1258.152</v>
       </c>
       <c r="E31">
-        <v>3775</v>
+        <v>979.80200000000002</v>
       </c>
       <c r="F31">
-        <v>4087</v>
+        <v>1018.304</v>
       </c>
       <c r="G31">
-        <v>30258</v>
+        <v>2948.2570000000001</v>
       </c>
       <c r="H31">
-        <v>65381</v>
+        <v>5879.0029999999997</v>
       </c>
       <c r="I31">
-        <v>711</v>
+        <v>396.20800000000003</v>
       </c>
       <c r="J31">
-        <v>26557</v>
+        <v>1310.287</v>
       </c>
       <c r="K31">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-4500</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="N31">
-        <v>10670</v>
+        <v>939.005</v>
       </c>
       <c r="O31">
-        <v>44730</v>
+        <v>2439.5100000000002</v>
       </c>
       <c r="P31">
-        <v>29054</v>
+        <v>1310.5029999999999</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>-245.202</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>20651</v>
+        <v>3439.4929999999999</v>
       </c>
       <c r="U31">
-        <v>7643</v>
+        <v>722.88400000000001</v>
       </c>
       <c r="V31">
-        <v>2270</v>
+        <v>605.51099999999997</v>
       </c>
       <c r="W31">
-        <v>-753</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-6595</v>
+        <v>-689.72199999999998</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>4586</v>
+        <v>-106.467</v>
       </c>
       <c r="AA31">
-        <v>1538</v>
+        <v>488.3</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1817</v>
+        <v>434.78300000000002</v>
       </c>
       <c r="D32">
-        <v>5648</v>
+        <v>1278.125</v>
       </c>
       <c r="E32">
-        <v>3541</v>
+        <v>1021.369</v>
       </c>
       <c r="F32">
-        <v>4452</v>
+        <v>1012.441</v>
       </c>
       <c r="G32">
-        <v>32728</v>
+        <v>3669.377</v>
       </c>
       <c r="H32">
-        <v>65355</v>
+        <v>6517.4170000000004</v>
       </c>
       <c r="I32">
-        <v>623</v>
+        <v>606.245</v>
       </c>
       <c r="J32">
-        <v>26062</v>
+        <v>26.452999999999999</v>
       </c>
       <c r="K32">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>10912</v>
+        <v>2451.3339999999998</v>
       </c>
       <c r="O32">
-        <v>43621</v>
+        <v>2652.0970000000002</v>
       </c>
       <c r="P32">
-        <v>29060</v>
+        <v>1330.115</v>
       </c>
       <c r="Q32">
-        <v>5591</v>
+        <v>396.71499999999997</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>21734</v>
+        <v>3865.32</v>
       </c>
       <c r="U32">
-        <v>13234</v>
+        <v>1119.5989999999999</v>
       </c>
       <c r="V32">
-        <v>1573</v>
+        <v>441.07</v>
       </c>
       <c r="W32">
-        <v>-740</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-1152</v>
+        <v>-63.47</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>5620</v>
+        <v>56.866</v>
       </c>
       <c r="AA32">
-        <v>1817</v>
+        <v>434.78300000000002</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>2097</v>
+        <v>495.85300000000001</v>
       </c>
       <c r="D33">
-        <v>5596</v>
+        <v>1371.268</v>
       </c>
       <c r="E33">
-        <v>3465</v>
+        <v>1047.2049999999999</v>
       </c>
       <c r="F33">
-        <v>4510</v>
+        <v>1071.085</v>
       </c>
       <c r="G33">
-        <v>34918</v>
+        <v>4326.683</v>
       </c>
       <c r="H33">
-        <v>64305</v>
+        <v>6974.1279999999997</v>
       </c>
       <c r="I33">
-        <v>580</v>
+        <v>631.52499999999998</v>
       </c>
       <c r="J33">
-        <v>24570</v>
+        <v>1321.221</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>10116</v>
+        <v>1259.134</v>
       </c>
       <c r="O33">
-        <v>41298</v>
+        <v>2680.5819999999999</v>
       </c>
       <c r="P33">
-        <v>27317</v>
+        <v>1327.2760000000001</v>
       </c>
       <c r="Q33">
-        <v>1335</v>
+        <v>89.825000000000003</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>23007</v>
+        <v>4293.5460000000003</v>
       </c>
       <c r="U33">
-        <v>14569</v>
+        <v>1209.424</v>
       </c>
       <c r="V33">
-        <v>2212</v>
+        <v>518.51599999999996</v>
       </c>
       <c r="W33">
-        <v>-742</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-2901</v>
+        <v>-140.95400000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>2098</v>
+        <v>-283.59699999999998</v>
       </c>
       <c r="AA33">
-        <v>2097</v>
+        <v>495.85300000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>559.96299999999997</v>
       </c>
       <c r="D34">
-        <v>5795</v>
+        <v>1428.2049999999999</v>
       </c>
       <c r="E34">
-        <v>3327</v>
+        <v>1023.397</v>
       </c>
       <c r="F34">
-        <v>4225</v>
+        <v>1106.674</v>
       </c>
       <c r="G34">
-        <v>35836</v>
+        <v>4278.4080000000004</v>
       </c>
       <c r="H34">
-        <v>63675</v>
+        <v>6936.8310000000001</v>
       </c>
       <c r="I34">
-        <v>790</v>
+        <v>601.20000000000005</v>
       </c>
       <c r="J34">
-        <v>24574</v>
+        <v>1098.0250000000001</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>10605</v>
+        <v>1220.992</v>
       </c>
       <c r="O34">
-        <v>42141</v>
+        <v>2471.248</v>
       </c>
       <c r="P34">
-        <v>27322</v>
+        <v>1098.0250000000001</v>
       </c>
       <c r="Q34">
-        <v>3371</v>
+        <v>249.87799999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>11000</v>
+        <v>3441</v>
       </c>
       <c r="T34">
-        <v>21534</v>
+        <v>4465.5829999999996</v>
       </c>
       <c r="U34">
-        <v>17940</v>
+        <v>1459.3019999999999</v>
       </c>
       <c r="V34">
-        <v>2345</v>
+        <v>578.28700000000003</v>
       </c>
       <c r="W34">
-        <v>-736</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-1670</v>
+        <v>-580.423</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>3165</v>
+        <v>280.23500000000001</v>
       </c>
       <c r="AA34">
-        <v>3</v>
+        <v>559.96299999999997</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1975</v>
+        <v>589.11199999999997</v>
       </c>
       <c r="D35">
-        <v>5281</v>
+        <v>1530.46</v>
       </c>
       <c r="E35">
-        <v>3283</v>
+        <v>1068</v>
       </c>
       <c r="F35">
-        <v>4324</v>
+        <v>1201.046</v>
       </c>
       <c r="G35">
-        <v>34024</v>
+        <v>4615.915</v>
       </c>
       <c r="H35">
-        <v>62837</v>
+        <v>7519.9139999999998</v>
       </c>
       <c r="I35">
-        <v>577</v>
+        <v>578.36199999999997</v>
       </c>
       <c r="J35">
-        <v>24080</v>
+        <v>1132.9090000000001</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-750</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>9397</v>
+        <v>1261.797</v>
       </c>
       <c r="O35">
-        <v>40746</v>
+        <v>2502.6309999999999</v>
       </c>
       <c r="P35">
-        <v>27082</v>
+        <v>1138.5219999999999</v>
       </c>
       <c r="Q35">
-        <v>-1013</v>
+        <v>204.34399999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>22091</v>
+        <v>5017.2830000000004</v>
       </c>
       <c r="U35">
-        <v>16927</v>
+        <v>1663.646</v>
       </c>
       <c r="V35">
-        <v>1577</v>
+        <v>641.33000000000004</v>
       </c>
       <c r="W35">
-        <v>-817</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-2366</v>
+        <v>-145.74100000000001</v>
       </c>
       <c r="Y35">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>308</v>
+        <v>-164.31800000000001</v>
       </c>
       <c r="AA35">
-        <v>1975</v>
+        <v>589.11199999999997</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1880</v>
+        <v>571.39800000000002</v>
       </c>
       <c r="D36">
-        <v>5685</v>
+        <v>1647.155</v>
       </c>
       <c r="E36">
-        <v>3396</v>
+        <v>1242.8989999999999</v>
       </c>
       <c r="F36">
-        <v>4685</v>
+        <v>1264.1099999999999</v>
       </c>
       <c r="G36">
-        <v>33727</v>
+        <v>4001.3069999999998</v>
       </c>
       <c r="H36">
-        <v>63210</v>
+        <v>8387.0920000000006</v>
       </c>
       <c r="I36">
-        <v>617</v>
+        <v>649.99900000000002</v>
       </c>
       <c r="J36">
-        <v>24084</v>
+        <v>1168.653</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>8961</v>
+        <v>1777.8820000000001</v>
       </c>
       <c r="O36">
-        <v>40459</v>
+        <v>3073.123</v>
       </c>
       <c r="P36">
-        <v>26637</v>
+        <v>1574.2750000000001</v>
       </c>
       <c r="Q36">
-        <v>-5687</v>
+        <v>-622.77200000000005</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>22751</v>
+        <v>5313.9690000000001</v>
       </c>
       <c r="U36">
-        <v>11240</v>
+        <v>1040.874</v>
       </c>
       <c r="V36">
-        <v>2342</v>
+        <v>622.91700000000003</v>
       </c>
       <c r="W36">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-1857</v>
+        <v>-156.29300000000001</v>
       </c>
       <c r="Y36">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-5841</v>
+        <v>205.512</v>
       </c>
       <c r="AA36">
-        <v>1880</v>
+        <v>571.39800000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-1165</v>
+        <v>673.03300000000002</v>
       </c>
       <c r="D37">
-        <v>5604</v>
+        <v>1801.3889999999999</v>
       </c>
       <c r="E37">
-        <v>3315</v>
+        <v>1339.165</v>
       </c>
       <c r="F37">
-        <v>4569</v>
+        <v>1391.6890000000001</v>
       </c>
       <c r="G37">
-        <v>28361</v>
+        <v>4297.6099999999997</v>
       </c>
       <c r="H37">
-        <v>59146</v>
+        <v>8936.98</v>
       </c>
       <c r="I37">
-        <v>632</v>
+        <v>742.68399999999997</v>
       </c>
       <c r="J37">
-        <v>22090</v>
+        <v>1174.7829999999999</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>9567</v>
+        <v>1889.249</v>
       </c>
       <c r="O37">
-        <v>38410</v>
+        <v>3184.8229999999999</v>
       </c>
       <c r="P37">
-        <v>25300</v>
+        <v>1380.396</v>
       </c>
       <c r="Q37">
-        <v>-1766</v>
+        <v>-16.274999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>20736</v>
+        <v>5752.1570000000002</v>
       </c>
       <c r="U37">
-        <v>9474</v>
+        <v>1024.5989999999999</v>
       </c>
       <c r="V37">
-        <v>2645</v>
+        <v>860.53099999999995</v>
       </c>
       <c r="W37">
-        <v>-804</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-2515</v>
+        <v>-425.32499999999999</v>
       </c>
       <c r="Y37">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>2386</v>
+        <v>-408.524</v>
       </c>
       <c r="AA37">
-        <v>-1165</v>
+        <v>673.03300000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>2696</v>
+        <v>802.21199999999999</v>
       </c>
       <c r="D38">
-        <v>5879</v>
+        <v>2032.3789999999999</v>
       </c>
       <c r="E38">
-        <v>3582</v>
+        <v>1389.5340000000001</v>
       </c>
       <c r="F38">
-        <v>4196</v>
+        <v>1558.98</v>
       </c>
       <c r="G38">
-        <v>30296</v>
+        <v>4812.558</v>
       </c>
       <c r="H38">
-        <v>61627</v>
+        <v>9698.5589999999993</v>
       </c>
       <c r="I38">
-        <v>713</v>
+        <v>810.54399999999998</v>
       </c>
       <c r="J38">
-        <v>22094</v>
+        <v>1155.443</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>9759</v>
+        <v>1871.6310000000001</v>
       </c>
       <c r="O38">
-        <v>38977</v>
+        <v>3193.4009999999998</v>
       </c>
       <c r="P38">
-        <v>25318</v>
+        <v>1155.443</v>
       </c>
       <c r="Q38">
-        <v>2157</v>
+        <v>248.35900000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>11800</v>
+        <v>3852</v>
       </c>
       <c r="T38">
-        <v>22650</v>
+        <v>6505.1580000000004</v>
       </c>
       <c r="U38">
-        <v>11631</v>
+        <v>1272.9580000000001</v>
       </c>
       <c r="V38">
-        <v>2580</v>
+        <v>955.27599999999995</v>
       </c>
       <c r="W38">
-        <v>-801</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-896</v>
+        <v>-324.07900000000001</v>
       </c>
       <c r="Y38">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>840</v>
+        <v>-370.697</v>
       </c>
       <c r="AA38">
-        <v>2696</v>
+        <v>802.21199999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1551</v>
+        <v>854.90099999999995</v>
       </c>
       <c r="D39">
-        <v>5548</v>
+        <v>2085.8530000000001</v>
       </c>
       <c r="E39">
-        <v>3907</v>
+        <v>1491.3320000000001</v>
       </c>
       <c r="F39">
-        <v>4579</v>
+        <v>1645.423</v>
       </c>
       <c r="G39">
-        <v>26950</v>
+        <v>5124.2280000000001</v>
       </c>
       <c r="H39">
-        <v>59741</v>
+        <v>10695.998</v>
       </c>
       <c r="I39">
-        <v>590</v>
+        <v>949.08399999999995</v>
       </c>
       <c r="J39">
-        <v>22098</v>
+        <v>1195.318</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>8879</v>
+        <v>1887.6510000000001</v>
       </c>
       <c r="O39">
-        <v>37562</v>
+        <v>3193.326</v>
       </c>
       <c r="P39">
-        <v>24097</v>
+        <v>1202.4059999999999</v>
       </c>
       <c r="Q39">
-        <v>-1580</v>
+        <v>-336.07799999999997</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>22179</v>
+        <v>7502.6719999999996</v>
       </c>
       <c r="U39">
-        <v>10051</v>
+        <v>936.88</v>
       </c>
       <c r="V39">
-        <v>1436</v>
+        <v>670.56899999999996</v>
       </c>
       <c r="W39">
-        <v>-874</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-2611</v>
+        <v>16.032</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-61</v>
+        <v>-1057.1120000000001</v>
       </c>
       <c r="AA39">
-        <v>1551</v>
+        <v>854.90099999999995</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-3339</v>
+        <v>712.06100000000004</v>
       </c>
       <c r="D40">
-        <v>5143</v>
+        <v>1927.2239999999999</v>
       </c>
       <c r="E40">
-        <v>3194</v>
+        <v>1482.9</v>
       </c>
       <c r="F40">
-        <v>4079</v>
+        <v>1471.6990000000001</v>
       </c>
       <c r="G40">
-        <v>24643</v>
+        <v>5709.0140000000001</v>
       </c>
       <c r="H40">
-        <v>55934</v>
+        <v>10496.708000000001</v>
       </c>
       <c r="I40">
-        <v>532</v>
+        <v>1066.433</v>
       </c>
       <c r="J40">
-        <v>21103</v>
+        <v>562.61199999999997</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>10564</v>
+        <v>3105.723</v>
       </c>
       <c r="O40">
-        <v>37792</v>
+        <v>3796.7080000000001</v>
       </c>
       <c r="P40">
-        <v>24102</v>
+        <v>562.61199999999997</v>
       </c>
       <c r="Q40">
-        <v>-3305</v>
+        <v>545.75900000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>18142</v>
+        <v>6700</v>
       </c>
       <c r="U40">
-        <v>6746</v>
+        <v>1482.6389999999999</v>
       </c>
       <c r="V40">
-        <v>2566</v>
+        <v>699.07899999999995</v>
       </c>
       <c r="W40">
-        <v>-856</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-874</v>
+        <v>-1165.5360000000001</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-125</v>
+        <v>949.02300000000002</v>
       </c>
       <c r="AA40">
-        <v>-3339</v>
+        <v>712.06100000000004</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>360</v>
+        <v>704.87599999999998</v>
       </c>
       <c r="D41">
-        <v>6577</v>
+        <v>1937.6559999999999</v>
       </c>
       <c r="E41">
-        <v>3913</v>
+        <v>1670.405</v>
       </c>
       <c r="F41">
-        <v>5436</v>
+        <v>1460.0719999999999</v>
       </c>
       <c r="G41">
-        <v>30926</v>
+        <v>6031.9470000000001</v>
       </c>
       <c r="H41">
-        <v>60878</v>
+        <v>11455.591</v>
       </c>
       <c r="I41">
-        <v>527</v>
+        <v>950.81299999999999</v>
       </c>
       <c r="J41">
-        <v>27792</v>
+        <v>2818.7080000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>9509</v>
+        <v>2590.1080000000002</v>
       </c>
       <c r="O41">
-        <v>43407</v>
+        <v>5576.8190000000004</v>
       </c>
       <c r="P41">
-        <v>29290</v>
+        <v>3451.0940000000001</v>
       </c>
       <c r="Q41">
-        <v>6140</v>
+        <v>-459.64600000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>17471</v>
+        <v>5878.7719999999999</v>
       </c>
       <c r="U41">
-        <v>12886</v>
+        <v>1022.9930000000001</v>
       </c>
       <c r="V41">
-        <v>2250</v>
+        <v>739.42200000000003</v>
       </c>
       <c r="W41">
-        <v>-861</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>4124</v>
+        <v>270.45</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>884</v>
+        <v>-1292.3230000000001</v>
       </c>
       <c r="AA41">
-        <v>360</v>
+        <v>704.87599999999998</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>629.41899999999998</v>
+      </c>
+      <c r="D42">
+        <v>1998.6869999999999</v>
+      </c>
+      <c r="E42">
+        <v>1621.9659999999999</v>
+      </c>
+      <c r="F42">
+        <v>1502.35</v>
+      </c>
+      <c r="G42">
+        <v>5708.0820000000003</v>
+      </c>
+      <c r="H42">
+        <v>11592.63</v>
+      </c>
+      <c r="I42">
+        <v>803.02499999999998</v>
+      </c>
+      <c r="J42">
+        <v>2838.5729999999999</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2464.9499999999998</v>
+      </c>
+      <c r="O42">
+        <v>5470.7929999999997</v>
+      </c>
+      <c r="P42">
+        <v>3477.5639999999999</v>
+      </c>
+      <c r="Q42">
+        <v>-115.114</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4000</v>
+      </c>
+      <c r="T42">
+        <v>6121.8370000000004</v>
+      </c>
+      <c r="U42">
+        <v>907.87900000000002</v>
+      </c>
+      <c r="V42">
+        <v>724.84299999999996</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-459.65600000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-384.45499999999998</v>
+      </c>
+      <c r="AA42">
+        <v>629.41899999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>651.14099999999996</v>
+      </c>
+      <c r="D43">
+        <v>1926.0940000000001</v>
+      </c>
+      <c r="E43">
+        <v>1801.212</v>
+      </c>
+      <c r="F43">
+        <v>1451.9829999999999</v>
+      </c>
+      <c r="G43">
+        <v>6851.1319999999996</v>
+      </c>
+      <c r="H43">
+        <v>12987.353999999999</v>
+      </c>
+      <c r="I43">
+        <v>981.63099999999997</v>
+      </c>
+      <c r="J43">
+        <v>3850.13</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2768.7649999999999</v>
+      </c>
+      <c r="O43">
+        <v>6811.9930000000004</v>
+      </c>
+      <c r="P43">
+        <v>4497.3680000000004</v>
+      </c>
+      <c r="Q43">
+        <v>928.09900000000005</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>6175.3609999999999</v>
+      </c>
+      <c r="U43">
+        <v>1835.9780000000001</v>
+      </c>
+      <c r="V43">
+        <v>820.54200000000003</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>485.11</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-64.406000000000006</v>
+      </c>
+      <c r="AA43">
+        <v>651.14099999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>746.22699999999998</v>
+      </c>
+      <c r="D44">
+        <v>2137.2530000000002</v>
+      </c>
+      <c r="E44">
+        <v>1938.645</v>
+      </c>
+      <c r="F44">
+        <v>1603.39</v>
+      </c>
+      <c r="G44">
+        <v>6219.0450000000001</v>
+      </c>
+      <c r="H44">
+        <v>12694.14</v>
+      </c>
+      <c r="I44">
+        <v>1102.319</v>
+      </c>
+      <c r="J44">
+        <v>3870.846</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2310.8409999999999</v>
+      </c>
+      <c r="O44">
+        <v>6482.8090000000002</v>
+      </c>
+      <c r="P44">
+        <v>3870.846</v>
+      </c>
+      <c r="Q44">
+        <v>-930.19899999999996</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>6211.3310000000001</v>
+      </c>
+      <c r="U44">
+        <v>905.779</v>
+      </c>
+      <c r="V44">
+        <v>943.255</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-1371.962</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-75.652000000000001</v>
+      </c>
+      <c r="AA44">
+        <v>746.22699999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>741.12400000000002</v>
+      </c>
+      <c r="D45">
+        <v>2121.66</v>
+      </c>
+      <c r="E45">
+        <v>1867.0920000000001</v>
+      </c>
+      <c r="F45">
+        <v>1589.671</v>
+      </c>
+      <c r="G45">
+        <v>6147.2669999999998</v>
+      </c>
+      <c r="H45">
+        <v>12639.897999999999</v>
+      </c>
+      <c r="I45">
+        <v>1063.723</v>
+      </c>
+      <c r="J45">
+        <v>3891.7579999999998</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2224.431</v>
+      </c>
+      <c r="O45">
+        <v>6406.692</v>
+      </c>
+      <c r="P45">
+        <v>3891.7579999999998</v>
+      </c>
+      <c r="Q45">
+        <v>3.58</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>6233.2060000000001</v>
+      </c>
+      <c r="U45">
+        <v>909.35900000000004</v>
+      </c>
+      <c r="V45">
+        <v>897.10599999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-876.19899999999996</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-16.030999999999999</v>
+      </c>
+      <c r="AA45">
+        <v>741.12400000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>665.14499999999998</v>
+      </c>
+      <c r="D46">
+        <v>2200.3780000000002</v>
+      </c>
+      <c r="E46">
+        <v>1951.1669999999999</v>
+      </c>
+      <c r="F46">
+        <v>1615.931</v>
+      </c>
+      <c r="G46">
+        <v>13918.785</v>
+      </c>
+      <c r="H46">
+        <v>17303.133999999998</v>
+      </c>
+      <c r="I46">
+        <v>1206.0519999999999</v>
+      </c>
+      <c r="J46">
+        <v>7605.7340000000004</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2514.79</v>
+      </c>
+      <c r="O46">
+        <v>10435.785</v>
+      </c>
+      <c r="P46">
+        <v>7605.7340000000004</v>
+      </c>
+      <c r="Q46">
+        <v>8974.4179999999997</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>4500</v>
+      </c>
+      <c r="T46">
+        <v>6867.3490000000002</v>
+      </c>
+      <c r="U46">
+        <v>9883.777</v>
+      </c>
+      <c r="V46">
+        <v>978.10699999999997</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>3526.62</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>4466.4459999999999</v>
+      </c>
+      <c r="AA46">
+        <v>665.14499999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>441.95600000000002</v>
+      </c>
+      <c r="D47">
+        <v>2282.4490000000001</v>
+      </c>
+      <c r="E47">
+        <v>2163.6590000000001</v>
+      </c>
+      <c r="F47">
+        <v>1701.518</v>
+      </c>
+      <c r="G47">
+        <v>5826.5320000000002</v>
+      </c>
+      <c r="H47">
+        <v>19950.385999999999</v>
+      </c>
+      <c r="I47">
+        <v>1339.2570000000001</v>
+      </c>
+      <c r="J47">
+        <v>8077.2460000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-350</v>
+      </c>
+      <c r="N47">
+        <v>4187.9040000000005</v>
+      </c>
+      <c r="O47">
+        <v>12586.302</v>
+      </c>
+      <c r="P47">
+        <v>9427.2459999999992</v>
+      </c>
+      <c r="Q47">
+        <v>-8431.8349999999991</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>7364.0839999999998</v>
+      </c>
+      <c r="U47">
+        <v>1451.942</v>
+      </c>
+      <c r="V47">
+        <v>452.96899999999999</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>1855.59</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>31.719000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>441.95600000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>711.56399999999996</v>
+      </c>
+      <c r="D48">
+        <v>2405.1860000000001</v>
+      </c>
+      <c r="E48">
+        <v>1702.818</v>
+      </c>
+      <c r="F48">
+        <v>1787.8409999999999</v>
+      </c>
+      <c r="G48">
+        <v>5844.1019999999999</v>
+      </c>
+      <c r="H48">
+        <v>20501.95</v>
+      </c>
+      <c r="I48">
+        <v>1367.3530000000001</v>
+      </c>
+      <c r="J48">
+        <v>7126.3770000000004</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>4986.674</v>
+      </c>
+      <c r="O48">
+        <v>12418.563</v>
+      </c>
+      <c r="P48">
+        <v>9099.14</v>
+      </c>
+      <c r="Q48">
+        <v>173.55799999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>8083.3869999999997</v>
+      </c>
+      <c r="U48">
+        <v>1625.5</v>
+      </c>
+      <c r="V48">
+        <v>1290.6510000000001</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-474.87900000000002</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-597.572</v>
+      </c>
+      <c r="AA48">
+        <v>711.56399999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>675.505</v>
+      </c>
+      <c r="D49">
+        <v>2426.5970000000002</v>
+      </c>
+      <c r="E49">
+        <v>1766.0909999999999</v>
+      </c>
+      <c r="F49">
+        <v>1829.328</v>
+      </c>
+      <c r="G49">
+        <v>5880.3789999999999</v>
+      </c>
+      <c r="H49">
+        <v>20963.829000000002</v>
+      </c>
+      <c r="I49">
+        <v>1319.67</v>
+      </c>
+      <c r="J49">
+        <v>7040.3819999999996</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>4802.1480000000001</v>
+      </c>
+      <c r="O49">
+        <v>12213.666999999999</v>
+      </c>
+      <c r="P49">
+        <v>8771.2199999999993</v>
+      </c>
+      <c r="Q49">
+        <v>-74.790000000000006</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>8750.1620000000003</v>
+      </c>
+      <c r="U49">
+        <v>1550.71</v>
+      </c>
+      <c r="V49">
+        <v>745.36800000000005</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-307.51400000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-451.46</v>
+      </c>
+      <c r="AA49">
+        <v>675.505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>762.54100000000005</v>
+      </c>
+      <c r="D50">
+        <v>2503.2849999999999</v>
+      </c>
+      <c r="E50">
+        <v>1751.3879999999999</v>
+      </c>
+      <c r="F50">
+        <v>1912.4670000000001</v>
+      </c>
+      <c r="G50">
+        <v>6156.3469999999998</v>
+      </c>
+      <c r="H50">
+        <v>21239.838</v>
+      </c>
+      <c r="I50">
+        <v>1327.3389999999999</v>
+      </c>
+      <c r="J50">
+        <v>7054.5550000000003</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>4237.8969999999999</v>
+      </c>
+      <c r="O50">
+        <v>11688.968999999999</v>
+      </c>
+      <c r="P50">
+        <v>8223.9879999999994</v>
+      </c>
+      <c r="Q50">
+        <v>252.98400000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>5000</v>
+      </c>
+      <c r="T50">
+        <v>9550.8690000000006</v>
+      </c>
+      <c r="U50">
+        <v>1803.694</v>
+      </c>
+      <c r="V50">
+        <v>705.72799999999995</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-509.851</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>319.94</v>
+      </c>
+      <c r="AA50">
+        <v>762.54100000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>722.18600000000004</v>
+      </c>
+      <c r="D51">
+        <v>2531.6350000000002</v>
+      </c>
+      <c r="E51">
+        <v>1945.1890000000001</v>
+      </c>
+      <c r="F51">
+        <v>1897.1869999999999</v>
+      </c>
+      <c r="G51">
+        <v>6663.0969999999998</v>
+      </c>
+      <c r="H51">
+        <v>22211.668000000001</v>
+      </c>
+      <c r="I51">
+        <v>1356.3720000000001</v>
+      </c>
+      <c r="J51">
+        <v>7054.7960000000003</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-347.916</v>
+      </c>
+      <c r="N51">
+        <v>4290.2150000000001</v>
+      </c>
+      <c r="O51">
+        <v>11819.195</v>
+      </c>
+      <c r="P51">
+        <v>7997.5550000000003</v>
+      </c>
+      <c r="Q51">
+        <v>60.277999999999999</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>10392.473</v>
+      </c>
+      <c r="U51">
+        <v>1863.972</v>
+      </c>
+      <c r="V51">
+        <v>672.101</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-199.001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>10.243</v>
+      </c>
+      <c r="AA51">
+        <v>722.18600000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>772.60500000000002</v>
+      </c>
+      <c r="D52">
+        <v>2767.3939999999998</v>
+      </c>
+      <c r="E52">
+        <v>1895.913</v>
+      </c>
+      <c r="F52">
+        <v>2082.7310000000002</v>
+      </c>
+      <c r="G52">
+        <v>7072.5290000000005</v>
+      </c>
+      <c r="H52">
+        <v>22624.374</v>
+      </c>
+      <c r="I52">
+        <v>1390.6410000000001</v>
+      </c>
+      <c r="J52">
+        <v>5849.5519999999997</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>4937.1379999999999</v>
+      </c>
+      <c r="O52">
+        <v>11280.99</v>
+      </c>
+      <c r="P52">
+        <v>7337.7219999999998</v>
+      </c>
+      <c r="Q52">
+        <v>338.20400000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>11343.384</v>
+      </c>
+      <c r="U52">
+        <v>2202.1759999999999</v>
+      </c>
+      <c r="V52">
+        <v>953.00400000000002</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-557.64800000000002</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-10.201000000000001</v>
+      </c>
+      <c r="AA52">
+        <v>772.60500000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>788.60599999999999</v>
+      </c>
+      <c r="D53">
+        <v>2782.8330000000001</v>
+      </c>
+      <c r="E53">
+        <v>1971.9259999999999</v>
+      </c>
+      <c r="F53">
+        <v>2100.9650000000001</v>
+      </c>
+      <c r="G53">
+        <v>6968.0609999999997</v>
+      </c>
+      <c r="H53">
+        <v>22468.428</v>
+      </c>
+      <c r="I53">
+        <v>1350.402</v>
+      </c>
+      <c r="J53">
+        <v>5856.0929999999998</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>4895.1239999999998</v>
+      </c>
+      <c r="O53">
+        <v>11275.955</v>
+      </c>
+      <c r="P53">
+        <v>7313.415</v>
+      </c>
+      <c r="Q53">
+        <v>-191.44</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>11192.473</v>
+      </c>
+      <c r="U53">
+        <v>2010.7360000000001</v>
+      </c>
+      <c r="V53">
+        <v>753.096</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-942.23299999999995</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>29.148</v>
+      </c>
+      <c r="AA53">
+        <v>788.60599999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>791.60299999999995</v>
+      </c>
+      <c r="D54">
+        <v>3120.1379999999999</v>
+      </c>
+      <c r="E54">
+        <v>2182</v>
+      </c>
+      <c r="F54">
+        <v>2262.1170000000002</v>
+      </c>
+      <c r="G54">
+        <v>6997</v>
+      </c>
+      <c r="H54">
+        <v>22579</v>
+      </c>
+      <c r="I54">
+        <v>1256</v>
+      </c>
+      <c r="J54">
+        <v>3939</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>6407</v>
+      </c>
+      <c r="O54">
+        <v>10770</v>
+      </c>
+      <c r="P54">
+        <v>6636</v>
+      </c>
+      <c r="Q54">
+        <v>101.958</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>6100</v>
+      </c>
+      <c r="T54">
+        <v>11809</v>
+      </c>
+      <c r="U54">
+        <v>2113</v>
+      </c>
+      <c r="V54">
+        <v>726.79899999999998</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-845.11800000000005</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>285.81</v>
+      </c>
+      <c r="AA54">
+        <v>791.60299999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>2227</v>
+      </c>
+      <c r="D55">
+        <v>4999</v>
+      </c>
+      <c r="E55">
+        <v>3236.1950000000002</v>
+      </c>
+      <c r="F55">
+        <v>4186</v>
+      </c>
+      <c r="G55">
+        <v>12970.629000000001</v>
+      </c>
+      <c r="H55">
+        <v>28077.691999999999</v>
+      </c>
+      <c r="I55">
+        <v>1234.5070000000001</v>
+      </c>
+      <c r="J55">
+        <v>7932.0320000000002</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1419</v>
+      </c>
+      <c r="N55">
+        <v>5914.7759999999998</v>
+      </c>
+      <c r="O55">
+        <v>14329.731</v>
+      </c>
+      <c r="P55">
+        <v>9803.77</v>
+      </c>
+      <c r="Q55">
+        <v>4291</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>13747.960999999999</v>
+      </c>
+      <c r="U55">
+        <v>6404.1530000000002</v>
+      </c>
+      <c r="V55">
+        <v>1568</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>2884</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>3</v>
+      </c>
+      <c r="AA55">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>3655.5929999999998</v>
+      </c>
+      <c r="D56">
+        <v>6535</v>
+      </c>
+      <c r="E56">
+        <v>3436.7109999999998</v>
+      </c>
+      <c r="F56">
+        <v>5610</v>
+      </c>
+      <c r="G56">
+        <v>15499.339</v>
+      </c>
+      <c r="H56">
+        <v>31206.164000000001</v>
+      </c>
+      <c r="I56">
+        <v>1162.307</v>
+      </c>
+      <c r="J56">
+        <v>7932.5360000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>6227.9970000000003</v>
+      </c>
+      <c r="O56">
+        <v>14740.947</v>
+      </c>
+      <c r="P56">
+        <v>9504.5429999999997</v>
+      </c>
+      <c r="Q56">
+        <v>2326.3690000000001</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>16465.217000000001</v>
+      </c>
+      <c r="U56">
+        <v>8730.5220000000008</v>
+      </c>
+      <c r="V56">
+        <v>4185.2929999999997</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-1371.5909999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-396.25099999999998</v>
+      </c>
+      <c r="AA56">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>2731</v>
+      </c>
+      <c r="D57">
+        <v>6042</v>
+      </c>
+      <c r="E57">
+        <v>2850.3670000000002</v>
+      </c>
+      <c r="F57">
+        <v>5055</v>
+      </c>
+      <c r="G57">
+        <v>12562.031000000001</v>
+      </c>
+      <c r="H57">
+        <v>28844.393</v>
+      </c>
+      <c r="I57">
+        <v>1182.9169999999999</v>
+      </c>
+      <c r="J57">
+        <v>7933.04</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>6054.9520000000002</v>
+      </c>
+      <c r="O57">
+        <v>14953.401</v>
+      </c>
+      <c r="P57">
+        <v>9410.0589999999993</v>
+      </c>
+      <c r="Q57">
+        <v>-2522</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>13890.992</v>
+      </c>
+      <c r="U57">
+        <v>6209.06</v>
+      </c>
+      <c r="V57">
+        <v>4044</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-5772</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-635</v>
+      </c>
+      <c r="AA57">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>3487</v>
+      </c>
+      <c r="D58">
+        <v>7314</v>
+      </c>
+      <c r="E58">
+        <v>4635</v>
+      </c>
+      <c r="F58">
+        <v>6251</v>
+      </c>
+      <c r="G58">
+        <v>17714</v>
+      </c>
+      <c r="H58">
+        <v>34664</v>
+      </c>
+      <c r="I58">
+        <v>955</v>
+      </c>
+      <c r="J58">
+        <v>11921</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>5761</v>
+      </c>
+      <c r="O58">
+        <v>18830</v>
+      </c>
+      <c r="P58">
+        <v>12404</v>
+      </c>
+      <c r="Q58">
+        <v>3818</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>7000</v>
+      </c>
+      <c r="T58">
+        <v>15834</v>
+      </c>
+      <c r="U58">
+        <v>10027</v>
+      </c>
+      <c r="V58">
+        <v>3021</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1234</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-238</v>
+      </c>
+      <c r="AA58">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>4333</v>
+      </c>
+      <c r="D59">
+        <v>7594</v>
+      </c>
+      <c r="E59">
+        <v>4835</v>
+      </c>
+      <c r="F59">
+        <v>6712</v>
+      </c>
+      <c r="G59">
+        <v>21257</v>
+      </c>
+      <c r="H59">
+        <v>38321</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>11921</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-199</v>
+      </c>
+      <c r="N59">
+        <v>7428</v>
+      </c>
+      <c r="O59">
+        <v>20722</v>
+      </c>
+      <c r="P59">
+        <v>12363</v>
+      </c>
+      <c r="Q59">
+        <v>608</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>17599</v>
+      </c>
+      <c r="U59">
+        <v>14514</v>
+      </c>
+      <c r="V59">
+        <v>5701</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-2722</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-2175</v>
+      </c>
+      <c r="AA59">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>4492</v>
+      </c>
+      <c r="D60">
+        <v>8244</v>
+      </c>
+      <c r="E60">
+        <v>5331</v>
+      </c>
+      <c r="F60">
+        <v>7246</v>
+      </c>
+      <c r="G60">
+        <v>18093</v>
+      </c>
+      <c r="H60">
+        <v>39167</v>
+      </c>
+      <c r="I60">
+        <v>1571</v>
+      </c>
+      <c r="J60">
+        <v>11922</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>8925</v>
+      </c>
+      <c r="O60">
+        <v>22526</v>
+      </c>
+      <c r="P60">
+        <v>12274</v>
+      </c>
+      <c r="Q60">
+        <v>-3218</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>16641</v>
+      </c>
+      <c r="U60">
+        <v>7417</v>
+      </c>
+      <c r="V60">
+        <v>5658</v>
+      </c>
+      <c r="W60">
+        <v>-633</v>
+      </c>
+      <c r="X60">
+        <v>-5341</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-3381</v>
+      </c>
+      <c r="AA60">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>4600</v>
+      </c>
+      <c r="D61">
+        <v>8295</v>
+      </c>
+      <c r="E61">
+        <v>6105</v>
+      </c>
+      <c r="F61">
+        <v>7231</v>
+      </c>
+      <c r="G61">
+        <v>25910</v>
+      </c>
+      <c r="H61">
+        <v>50637</v>
+      </c>
+      <c r="I61">
+        <v>1239</v>
+      </c>
+      <c r="J61">
+        <v>21894</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>9360</v>
+      </c>
+      <c r="O61">
+        <v>32689</v>
+      </c>
+      <c r="P61">
+        <v>22225</v>
+      </c>
+      <c r="Q61">
+        <v>6548</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>17948</v>
+      </c>
+      <c r="U61">
+        <v>13965</v>
+      </c>
+      <c r="V61">
+        <v>4096</v>
+      </c>
+      <c r="W61">
+        <v>-627</v>
+      </c>
+      <c r="X61">
+        <v>6644</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-3900</v>
+      </c>
+      <c r="AA61">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>4683</v>
+      </c>
+      <c r="D62">
+        <v>8506</v>
+      </c>
+      <c r="E62">
+        <v>5854</v>
+      </c>
+      <c r="F62">
+        <v>7444</v>
+      </c>
+      <c r="G62">
+        <v>24762</v>
+      </c>
+      <c r="H62">
+        <v>51716</v>
+      </c>
+      <c r="I62">
+        <v>1178</v>
+      </c>
+      <c r="J62">
+        <v>21073</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>9890</v>
+      </c>
+      <c r="O62">
+        <v>32601</v>
+      </c>
+      <c r="P62">
+        <v>22055</v>
+      </c>
+      <c r="Q62">
+        <v>-1114</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>8000</v>
+      </c>
+      <c r="T62">
+        <v>19115</v>
+      </c>
+      <c r="U62">
+        <v>12851</v>
+      </c>
+      <c r="V62">
+        <v>4874</v>
+      </c>
+      <c r="W62">
+        <v>-614</v>
+      </c>
+      <c r="X62">
+        <v>-3544</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-2272</v>
+      </c>
+      <c r="AA62">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>3566</v>
+      </c>
+      <c r="D63">
+        <v>7794</v>
+      </c>
+      <c r="E63">
+        <v>6163</v>
+      </c>
+      <c r="F63">
+        <v>6601</v>
+      </c>
+      <c r="G63">
+        <v>19267</v>
+      </c>
+      <c r="H63">
+        <v>47765</v>
+      </c>
+      <c r="I63">
+        <v>945</v>
+      </c>
+      <c r="J63">
+        <v>21077</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-126</v>
+      </c>
+      <c r="N63">
+        <v>10910</v>
+      </c>
+      <c r="O63">
+        <v>33746</v>
+      </c>
+      <c r="P63">
+        <v>22030</v>
+      </c>
+      <c r="Q63">
+        <v>-6536</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>14019</v>
+      </c>
+      <c r="U63">
+        <v>6315</v>
+      </c>
+      <c r="V63">
+        <v>4130</v>
+      </c>
+      <c r="W63">
+        <v>-587</v>
+      </c>
+      <c r="X63">
+        <v>-8613</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-1575</v>
+      </c>
+      <c r="AA63">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>3497</v>
+      </c>
+      <c r="D64">
+        <v>7776</v>
+      </c>
+      <c r="E64">
+        <v>5752</v>
+      </c>
+      <c r="F64">
+        <v>6912</v>
+      </c>
+      <c r="G64">
+        <v>18353</v>
+      </c>
+      <c r="H64">
+        <v>49980</v>
+      </c>
+      <c r="I64">
+        <v>1122</v>
+      </c>
+      <c r="J64">
+        <v>21427</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>10444</v>
+      </c>
+      <c r="O64">
+        <v>33865</v>
+      </c>
+      <c r="P64">
+        <v>22127</v>
+      </c>
+      <c r="Q64">
+        <v>170</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>16115</v>
+      </c>
+      <c r="U64">
+        <v>6485</v>
+      </c>
+      <c r="V64">
+        <v>4985</v>
+      </c>
+      <c r="W64">
+        <v>-626</v>
+      </c>
+      <c r="X64">
+        <v>-1561</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-3437</v>
+      </c>
+      <c r="AA64">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>3330</v>
+      </c>
+      <c r="D65">
+        <v>7500</v>
+      </c>
+      <c r="E65">
+        <v>5075</v>
+      </c>
+      <c r="F65">
+        <v>6371</v>
+      </c>
+      <c r="G65">
+        <v>21425</v>
+      </c>
+      <c r="H65">
+        <v>56609</v>
+      </c>
+      <c r="I65">
+        <v>1052</v>
+      </c>
+      <c r="J65">
+        <v>26371</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>11073</v>
+      </c>
+      <c r="O65">
+        <v>39249</v>
+      </c>
+      <c r="P65">
+        <v>27071</v>
+      </c>
+      <c r="Q65">
+        <v>3324</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>17360</v>
+      </c>
+      <c r="U65">
+        <v>9809</v>
+      </c>
+      <c r="V65">
+        <v>4393</v>
+      </c>
+      <c r="W65">
+        <v>-623</v>
+      </c>
+      <c r="X65">
+        <v>2797</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-3719</v>
+      </c>
+      <c r="AA65">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>3108</v>
+      </c>
+      <c r="D66">
+        <v>7320</v>
+      </c>
+      <c r="E66">
+        <v>4514</v>
+      </c>
+      <c r="F66">
+        <v>6245</v>
+      </c>
+      <c r="G66">
+        <v>19588</v>
+      </c>
+      <c r="H66">
+        <v>56977</v>
+      </c>
+      <c r="I66">
+        <v>1206</v>
+      </c>
+      <c r="J66">
+        <v>26346</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>9218</v>
+      </c>
+      <c r="O66">
+        <v>37614</v>
+      </c>
+      <c r="P66">
+        <v>26346</v>
+      </c>
+      <c r="Q66">
+        <v>-1580</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>9000</v>
+      </c>
+      <c r="T66">
+        <v>19363</v>
+      </c>
+      <c r="U66">
+        <v>8229</v>
+      </c>
+      <c r="V66">
+        <v>3539</v>
+      </c>
+      <c r="W66">
+        <v>-619</v>
+      </c>
+      <c r="X66">
+        <v>-2348</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-2506</v>
+      </c>
+      <c r="AA66">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>2702</v>
+      </c>
+      <c r="D67">
+        <v>6505</v>
+      </c>
+      <c r="E67">
+        <v>4034</v>
+      </c>
+      <c r="F67">
+        <v>5548</v>
+      </c>
+      <c r="G67">
+        <v>21424</v>
+      </c>
+      <c r="H67">
+        <v>57701</v>
+      </c>
+      <c r="I67">
+        <v>944</v>
+      </c>
+      <c r="J67">
+        <v>26321</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-30</v>
+      </c>
+      <c r="N67">
+        <v>8282</v>
+      </c>
+      <c r="O67">
+        <v>36784</v>
+      </c>
+      <c r="P67">
+        <v>26321</v>
+      </c>
+      <c r="Q67">
+        <v>2056</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>20917</v>
+      </c>
+      <c r="U67">
+        <v>10285</v>
+      </c>
+      <c r="V67">
+        <v>2925</v>
+      </c>
+      <c r="W67">
+        <v>-687</v>
+      </c>
+      <c r="X67">
+        <v>-1244</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>425</v>
+      </c>
+      <c r="AA67">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>3073</v>
+      </c>
+      <c r="D68">
+        <v>7141</v>
+      </c>
+      <c r="E68">
+        <v>4478</v>
+      </c>
+      <c r="F68">
+        <v>6015</v>
+      </c>
+      <c r="G68">
+        <v>28592</v>
+      </c>
+      <c r="H68">
+        <v>60263</v>
+      </c>
+      <c r="I68">
+        <v>819</v>
+      </c>
+      <c r="J68">
+        <v>26296</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>8492</v>
+      </c>
+      <c r="O68">
+        <v>37172</v>
+      </c>
+      <c r="P68">
+        <v>26296</v>
+      </c>
+      <c r="Q68">
+        <v>-1573</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>23091</v>
+      </c>
+      <c r="U68">
+        <v>8712</v>
+      </c>
+      <c r="V68">
+        <v>3526</v>
+      </c>
+      <c r="W68">
+        <v>-680</v>
+      </c>
+      <c r="X68">
+        <v>-880</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-4123</v>
+      </c>
+      <c r="AA68">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>2718</v>
+      </c>
+      <c r="D69">
+        <v>6512</v>
+      </c>
+      <c r="E69">
+        <v>4122</v>
+      </c>
+      <c r="F69">
+        <v>5480</v>
+      </c>
+      <c r="G69">
+        <v>35317</v>
+      </c>
+      <c r="H69">
+        <v>64662</v>
+      </c>
+      <c r="I69">
+        <v>696</v>
+      </c>
+      <c r="J69">
+        <v>27515</v>
+      </c>
+      <c r="K69">
+        <v>748</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>9597</v>
+      </c>
+      <c r="O69">
+        <v>39408</v>
+      </c>
+      <c r="P69">
+        <v>29262</v>
+      </c>
+      <c r="Q69">
+        <v>2796</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>25254</v>
+      </c>
+      <c r="U69">
+        <v>11508</v>
+      </c>
+      <c r="V69">
+        <v>2694</v>
+      </c>
+      <c r="W69">
+        <v>-682</v>
+      </c>
+      <c r="X69">
+        <v>2170</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-1985</v>
+      </c>
+      <c r="AA69">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-3865</v>
+      </c>
+      <c r="D70">
+        <v>5949</v>
+      </c>
+      <c r="E70">
+        <v>3851</v>
+      </c>
+      <c r="F70">
+        <v>4693</v>
+      </c>
+      <c r="G70">
+        <v>31823</v>
+      </c>
+      <c r="H70">
+        <v>70283</v>
+      </c>
+      <c r="I70">
+        <v>814</v>
+      </c>
+      <c r="J70">
+        <v>30795</v>
+      </c>
+      <c r="K70">
+        <v>1748</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>11635</v>
+      </c>
+      <c r="O70">
+        <v>49782</v>
+      </c>
+      <c r="P70">
+        <v>33542</v>
+      </c>
+      <c r="Q70">
+        <v>-3920</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>10000</v>
+      </c>
+      <c r="T70">
+        <v>20501</v>
+      </c>
+      <c r="U70">
+        <v>7588</v>
+      </c>
+      <c r="V70">
+        <v>2753</v>
+      </c>
+      <c r="W70">
+        <v>-682</v>
+      </c>
+      <c r="X70">
+        <v>3347</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>630</v>
+      </c>
+      <c r="AA70">
+        <v>-3865</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1538</v>
+      </c>
+      <c r="D71">
+        <v>5088</v>
+      </c>
+      <c r="E71">
+        <v>3775</v>
+      </c>
+      <c r="F71">
+        <v>4087</v>
+      </c>
+      <c r="G71">
+        <v>30258</v>
+      </c>
+      <c r="H71">
+        <v>65381</v>
+      </c>
+      <c r="I71">
+        <v>711</v>
+      </c>
+      <c r="J71">
+        <v>26557</v>
+      </c>
+      <c r="K71">
+        <v>749</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-4500</v>
+      </c>
+      <c r="N71">
+        <v>10670</v>
+      </c>
+      <c r="O71">
+        <v>44730</v>
+      </c>
+      <c r="P71">
+        <v>29054</v>
+      </c>
+      <c r="Q71">
+        <v>55</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>20651</v>
+      </c>
+      <c r="U71">
+        <v>7643</v>
+      </c>
+      <c r="V71">
+        <v>2270</v>
+      </c>
+      <c r="W71">
+        <v>-753</v>
+      </c>
+      <c r="X71">
+        <v>-6595</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>4586</v>
+      </c>
+      <c r="AA71">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1817</v>
+      </c>
+      <c r="D72">
+        <v>5648</v>
+      </c>
+      <c r="E72">
+        <v>3541</v>
+      </c>
+      <c r="F72">
+        <v>4452</v>
+      </c>
+      <c r="G72">
+        <v>32728</v>
+      </c>
+      <c r="H72">
+        <v>65355</v>
+      </c>
+      <c r="I72">
+        <v>623</v>
+      </c>
+      <c r="J72">
+        <v>26062</v>
+      </c>
+      <c r="K72">
+        <v>750</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>10912</v>
+      </c>
+      <c r="O72">
+        <v>43621</v>
+      </c>
+      <c r="P72">
+        <v>29060</v>
+      </c>
+      <c r="Q72">
+        <v>5591</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>21734</v>
+      </c>
+      <c r="U72">
+        <v>13234</v>
+      </c>
+      <c r="V72">
+        <v>1573</v>
+      </c>
+      <c r="W72">
+        <v>-740</v>
+      </c>
+      <c r="X72">
+        <v>-1152</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>5620</v>
+      </c>
+      <c r="AA72">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>2097</v>
+      </c>
+      <c r="D73">
+        <v>5596</v>
+      </c>
+      <c r="E73">
+        <v>3465</v>
+      </c>
+      <c r="F73">
+        <v>4510</v>
+      </c>
+      <c r="G73">
+        <v>34918</v>
+      </c>
+      <c r="H73">
+        <v>64305</v>
+      </c>
+      <c r="I73">
+        <v>580</v>
+      </c>
+      <c r="J73">
+        <v>24570</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>10116</v>
+      </c>
+      <c r="O73">
+        <v>41298</v>
+      </c>
+      <c r="P73">
+        <v>27317</v>
+      </c>
+      <c r="Q73">
+        <v>1335</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>23007</v>
+      </c>
+      <c r="U73">
+        <v>14569</v>
+      </c>
+      <c r="V73">
+        <v>2212</v>
+      </c>
+      <c r="W73">
+        <v>-742</v>
+      </c>
+      <c r="X73">
+        <v>-2901</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>2098</v>
+      </c>
+      <c r="AA73">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>5795</v>
+      </c>
+      <c r="E74">
+        <v>3327</v>
+      </c>
+      <c r="F74">
+        <v>4225</v>
+      </c>
+      <c r="G74">
+        <v>35836</v>
+      </c>
+      <c r="H74">
+        <v>63675</v>
+      </c>
+      <c r="I74">
+        <v>790</v>
+      </c>
+      <c r="J74">
+        <v>24574</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>10605</v>
+      </c>
+      <c r="O74">
+        <v>42141</v>
+      </c>
+      <c r="P74">
+        <v>27322</v>
+      </c>
+      <c r="Q74">
+        <v>3371</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>11000</v>
+      </c>
+      <c r="T74">
+        <v>21534</v>
+      </c>
+      <c r="U74">
+        <v>17940</v>
+      </c>
+      <c r="V74">
+        <v>2345</v>
+      </c>
+      <c r="W74">
+        <v>-736</v>
+      </c>
+      <c r="X74">
+        <v>-1670</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>3165</v>
+      </c>
+      <c r="AA74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1975</v>
+      </c>
+      <c r="D75">
+        <v>5281</v>
+      </c>
+      <c r="E75">
+        <v>3283</v>
+      </c>
+      <c r="F75">
+        <v>4324</v>
+      </c>
+      <c r="G75">
+        <v>34024</v>
+      </c>
+      <c r="H75">
+        <v>62837</v>
+      </c>
+      <c r="I75">
+        <v>577</v>
+      </c>
+      <c r="J75">
+        <v>24080</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-750</v>
+      </c>
+      <c r="N75">
+        <v>9397</v>
+      </c>
+      <c r="O75">
+        <v>40746</v>
+      </c>
+      <c r="P75">
+        <v>27082</v>
+      </c>
+      <c r="Q75">
+        <v>-1013</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>22091</v>
+      </c>
+      <c r="U75">
+        <v>16927</v>
+      </c>
+      <c r="V75">
+        <v>1577</v>
+      </c>
+      <c r="W75">
+        <v>-817</v>
+      </c>
+      <c r="X75">
+        <v>-2366</v>
+      </c>
+      <c r="Y75">
+        <v>429</v>
+      </c>
+      <c r="Z75">
+        <v>308</v>
+      </c>
+      <c r="AA75">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1880</v>
+      </c>
+      <c r="D76">
+        <v>5685</v>
+      </c>
+      <c r="E76">
+        <v>3396</v>
+      </c>
+      <c r="F76">
+        <v>4685</v>
+      </c>
+      <c r="G76">
+        <v>33727</v>
+      </c>
+      <c r="H76">
+        <v>63210</v>
+      </c>
+      <c r="I76">
+        <v>617</v>
+      </c>
+      <c r="J76">
+        <v>24084</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>8961</v>
+      </c>
+      <c r="O76">
+        <v>40459</v>
+      </c>
+      <c r="P76">
+        <v>26637</v>
+      </c>
+      <c r="Q76">
+        <v>-5687</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>22751</v>
+      </c>
+      <c r="U76">
+        <v>11240</v>
+      </c>
+      <c r="V76">
+        <v>2342</v>
+      </c>
+      <c r="W76">
+        <v>-800</v>
+      </c>
+      <c r="X76">
+        <v>-1857</v>
+      </c>
+      <c r="Y76">
+        <v>481</v>
+      </c>
+      <c r="Z76">
+        <v>-5841</v>
+      </c>
+      <c r="AA76">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-1165</v>
+      </c>
+      <c r="D77">
+        <v>5604</v>
+      </c>
+      <c r="E77">
+        <v>3315</v>
+      </c>
+      <c r="F77">
+        <v>4569</v>
+      </c>
+      <c r="G77">
+        <v>28361</v>
+      </c>
+      <c r="H77">
+        <v>59146</v>
+      </c>
+      <c r="I77">
+        <v>632</v>
+      </c>
+      <c r="J77">
+        <v>22090</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>9567</v>
+      </c>
+      <c r="O77">
+        <v>38410</v>
+      </c>
+      <c r="P77">
+        <v>25300</v>
+      </c>
+      <c r="Q77">
+        <v>-1766</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>20736</v>
+      </c>
+      <c r="U77">
+        <v>9474</v>
+      </c>
+      <c r="V77">
+        <v>2645</v>
+      </c>
+      <c r="W77">
+        <v>-804</v>
+      </c>
+      <c r="X77">
+        <v>-2515</v>
+      </c>
+      <c r="Y77">
+        <v>619</v>
+      </c>
+      <c r="Z77">
+        <v>2386</v>
+      </c>
+      <c r="AA77">
+        <v>-1165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>2696</v>
+      </c>
+      <c r="D78">
+        <v>5879</v>
+      </c>
+      <c r="E78">
+        <v>3582</v>
+      </c>
+      <c r="F78">
+        <v>4196</v>
+      </c>
+      <c r="G78">
+        <v>30296</v>
+      </c>
+      <c r="H78">
+        <v>61627</v>
+      </c>
+      <c r="I78">
+        <v>713</v>
+      </c>
+      <c r="J78">
+        <v>22094</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>9759</v>
+      </c>
+      <c r="O78">
+        <v>38977</v>
+      </c>
+      <c r="P78">
+        <v>25318</v>
+      </c>
+      <c r="Q78">
+        <v>2157</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>11800</v>
+      </c>
+      <c r="T78">
+        <v>22650</v>
+      </c>
+      <c r="U78">
+        <v>11631</v>
+      </c>
+      <c r="V78">
+        <v>2580</v>
+      </c>
+      <c r="W78">
+        <v>-801</v>
+      </c>
+      <c r="X78">
+        <v>-896</v>
+      </c>
+      <c r="Y78">
+        <v>626</v>
+      </c>
+      <c r="Z78">
+        <v>840</v>
+      </c>
+      <c r="AA78">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
         <v>1551</v>
       </c>
-      <c r="D42">
+      <c r="D79">
+        <v>5548</v>
+      </c>
+      <c r="E79">
+        <v>3907</v>
+      </c>
+      <c r="F79">
+        <v>4579</v>
+      </c>
+      <c r="G79">
+        <v>26950</v>
+      </c>
+      <c r="H79">
+        <v>59741</v>
+      </c>
+      <c r="I79">
+        <v>590</v>
+      </c>
+      <c r="J79">
+        <v>22098</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-500</v>
+      </c>
+      <c r="N79">
+        <v>8879</v>
+      </c>
+      <c r="O79">
+        <v>37562</v>
+      </c>
+      <c r="P79">
+        <v>24097</v>
+      </c>
+      <c r="Q79">
+        <v>-1580</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>22179</v>
+      </c>
+      <c r="U79">
+        <v>10051</v>
+      </c>
+      <c r="V79">
+        <v>1436</v>
+      </c>
+      <c r="W79">
+        <v>-874</v>
+      </c>
+      <c r="X79">
+        <v>-2611</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>-61</v>
+      </c>
+      <c r="AA79">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-3339</v>
+      </c>
+      <c r="D80">
+        <v>5143</v>
+      </c>
+      <c r="E80">
+        <v>3194</v>
+      </c>
+      <c r="F80">
+        <v>4079</v>
+      </c>
+      <c r="G80">
+        <v>24643</v>
+      </c>
+      <c r="H80">
+        <v>55934</v>
+      </c>
+      <c r="I80">
+        <v>532</v>
+      </c>
+      <c r="J80">
+        <v>21103</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>10564</v>
+      </c>
+      <c r="O80">
+        <v>37792</v>
+      </c>
+      <c r="P80">
+        <v>24102</v>
+      </c>
+      <c r="Q80">
+        <v>-3305</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>18142</v>
+      </c>
+      <c r="U80">
+        <v>6746</v>
+      </c>
+      <c r="V80">
+        <v>2566</v>
+      </c>
+      <c r="W80">
+        <v>-856</v>
+      </c>
+      <c r="X80">
+        <v>-874</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-125</v>
+      </c>
+      <c r="AA80">
+        <v>-3339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>360</v>
+      </c>
+      <c r="D81">
+        <v>6577</v>
+      </c>
+      <c r="E81">
+        <v>3913</v>
+      </c>
+      <c r="F81">
+        <v>5436</v>
+      </c>
+      <c r="G81">
+        <v>30926</v>
+      </c>
+      <c r="H81">
+        <v>60878</v>
+      </c>
+      <c r="I81">
+        <v>527</v>
+      </c>
+      <c r="J81">
+        <v>27792</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>9509</v>
+      </c>
+      <c r="O81">
+        <v>43407</v>
+      </c>
+      <c r="P81">
+        <v>29290</v>
+      </c>
+      <c r="Q81">
+        <v>6140</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>17471</v>
+      </c>
+      <c r="U81">
+        <v>12886</v>
+      </c>
+      <c r="V81">
+        <v>2250</v>
+      </c>
+      <c r="W81">
+        <v>-861</v>
+      </c>
+      <c r="X81">
+        <v>4124</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>884</v>
+      </c>
+      <c r="AA81">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>1551</v>
+      </c>
+      <c r="D82">
         <v>7421</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>4892</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>6904</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>15996</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>68407</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>844</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>28645</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>11397</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>50186</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>32117</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-6889</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>13600</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>18221</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>5997</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1916</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-858</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>131</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>608</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>11250</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>1551</v>
       </c>
     </row>
